--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1720,55 +1720,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278753000</v>
+        <v>131344000</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>575870000</v>
       </c>
       <c r="D2" t="n">
-        <v>649275000</v>
+        <v>369166000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1409375000</v>
       </c>
       <c r="F2" t="n">
-        <v>3212571000</v>
+        <v>330422000</v>
       </c>
       <c r="G2" t="n">
-        <v>255724000</v>
+        <v>10088000</v>
       </c>
       <c r="H2" t="n">
-        <v>765247000</v>
+        <v>43596000</v>
       </c>
       <c r="I2" t="n">
-        <v>2207077000</v>
+        <v>69451000</v>
       </c>
       <c r="J2" t="n">
-        <v>382355000</v>
+        <v>118685000</v>
       </c>
       <c r="K2" t="n">
-        <v>1391887000</v>
+        <v>121941000</v>
       </c>
       <c r="L2" t="n">
-        <v>1153319000</v>
+        <v>58553000</v>
       </c>
       <c r="M2" t="n">
-        <v>770186000</v>
+        <v>112433000</v>
       </c>
       <c r="N2" t="n">
-        <v>484376000</v>
+        <v>24283000</v>
       </c>
       <c r="O2" t="n">
-        <v>3199195000</v>
+        <v>143330000</v>
       </c>
       <c r="P2" t="n">
-        <v>5512916000</v>
+        <v>491016000</v>
       </c>
       <c r="Q2" t="n">
-        <v>789171000</v>
+        <v>40162000</v>
       </c>
       <c r="R2" t="n">
-        <v>2927848000</v>
+        <v>96428000</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1777,55 +1777,55 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2453613000</v>
+        <v>99953000</v>
       </c>
       <c r="V2" t="n">
-        <v>1897810000</v>
+        <v>500950000</v>
       </c>
       <c r="W2" t="n">
-        <v>9960342000</v>
+        <v>2862120000</v>
       </c>
       <c r="X2" t="n">
-        <v>23997757000</v>
+        <v>4727832000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6493477000</v>
+        <v>1445966000</v>
       </c>
       <c r="Z2" t="n">
-        <v>5828101000</v>
+        <v>2125263000</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338461000</v>
+        <v>370389000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145135000</v>
+        <v>383692000</v>
       </c>
       <c r="AC2" t="n">
-        <v>937326000</v>
+        <v>42792000</v>
       </c>
       <c r="AD2" t="n">
-        <v>18673085000</v>
+        <v>1880567000</v>
       </c>
       <c r="AE2" t="n">
-        <v>2213672000</v>
+        <v>506937000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5618187000</v>
+        <v>1293077000</v>
       </c>
       <c r="AG2" t="n">
-        <v>30551270000</v>
+        <v>14398860000</v>
       </c>
       <c r="AH2" t="n">
-        <v>3027281000</v>
+        <v>428925000</v>
       </c>
       <c r="AI2" t="n">
-        <v>29740320000</v>
+        <v>6262405000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2129314000</v>
+        <v>318637000</v>
       </c>
       <c r="AK2" t="n">
-        <v>190130000</v>
+        <v>116370000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4095" yWindow="870" windowWidth="24090" windowHeight="15945" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD VAL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
@@ -21,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,8 +116,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -153,8 +160,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -169,6 +188,19 @@
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FFC0C0C0"/>
       </top>
@@ -227,7 +259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -267,19 +299,127 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -289,6 +429,246 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,15 +938,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="77.5" customWidth="1" min="2" max="2"/>
+    <col width="77.5703125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,71 +962,132 @@
           <t>Source:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="50" t="inlineStr">
+        <is>
+          <t>Most Industries</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="n">
+    <row r="5">
+      <c r="B5" s="2" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Input-Output Tables 2018 Edition (ISIC Rev. 4)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Variable: VAL</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="10">
+      <c r="B10" s="50" t="inlineStr">
+        <is>
+          <t>Chemicals and Pharmaceuticals Industries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OECD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>STAN Database for Structural Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Variable: PROD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>In the OECD dataset, employee compensation includes not just salary and bonuses</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>but also employer-paid benefits and employer-paid retirement plan contributions.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>We convert 2015 USD to 2012 USD with the following conversion factor:</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="16" t="n">
+    <row r="25">
+      <c r="A25" s="16" t="n">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>2012 USD per 2015 USD</t>
         </is>
@@ -654,7 +1095,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -673,19 +1115,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="39"/>
-    <col width="9.1640625" customWidth="1" style="6" min="40" max="16384"/>
+    <col width="27.42578125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="2.42578125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.140625" customWidth="1" style="6" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -706,205 +1147,205 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="17" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="51" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="18" t="n"/>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="B3" s="52" t="n"/>
+      <c r="C3" s="53" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="20" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="n"/>
-      <c r="H3" s="20" t="n"/>
-      <c r="I3" s="20" t="n"/>
-      <c r="J3" s="20" t="n"/>
-      <c r="K3" s="20" t="n"/>
-      <c r="L3" s="20" t="n"/>
-      <c r="M3" s="20" t="n"/>
-      <c r="N3" s="20" t="n"/>
-      <c r="O3" s="20" t="n"/>
-      <c r="P3" s="20" t="n"/>
-      <c r="Q3" s="20" t="n"/>
-      <c r="R3" s="20" t="n"/>
-      <c r="S3" s="20" t="n"/>
-      <c r="T3" s="20" t="n"/>
-      <c r="U3" s="20" t="n"/>
-      <c r="V3" s="20" t="n"/>
-      <c r="W3" s="20" t="n"/>
-      <c r="X3" s="20" t="n"/>
-      <c r="Y3" s="20" t="n"/>
-      <c r="Z3" s="20" t="n"/>
-      <c r="AA3" s="20" t="n"/>
-      <c r="AB3" s="20" t="n"/>
-      <c r="AC3" s="20" t="n"/>
-      <c r="AD3" s="20" t="n"/>
-      <c r="AE3" s="20" t="n"/>
-      <c r="AF3" s="20" t="n"/>
-      <c r="AG3" s="20" t="n"/>
-      <c r="AH3" s="20" t="n"/>
-      <c r="AI3" s="20" t="n"/>
-      <c r="AJ3" s="20" t="n"/>
-      <c r="AK3" s="20" t="n"/>
-      <c r="AL3" s="18" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
+      <c r="D3" s="54" t="n"/>
+      <c r="E3" s="54" t="n"/>
+      <c r="F3" s="54" t="n"/>
+      <c r="G3" s="54" t="n"/>
+      <c r="H3" s="54" t="n"/>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="54" t="n"/>
+      <c r="K3" s="54" t="n"/>
+      <c r="L3" s="54" t="n"/>
+      <c r="M3" s="54" t="n"/>
+      <c r="N3" s="54" t="n"/>
+      <c r="O3" s="54" t="n"/>
+      <c r="P3" s="54" t="n"/>
+      <c r="Q3" s="54" t="n"/>
+      <c r="R3" s="54" t="n"/>
+      <c r="S3" s="54" t="n"/>
+      <c r="T3" s="54" t="n"/>
+      <c r="U3" s="54" t="n"/>
+      <c r="V3" s="54" t="n"/>
+      <c r="W3" s="54" t="n"/>
+      <c r="X3" s="54" t="n"/>
+      <c r="Y3" s="54" t="n"/>
+      <c r="Z3" s="54" t="n"/>
+      <c r="AA3" s="54" t="n"/>
+      <c r="AB3" s="54" t="n"/>
+      <c r="AC3" s="54" t="n"/>
+      <c r="AD3" s="54" t="n"/>
+      <c r="AE3" s="54" t="n"/>
+      <c r="AF3" s="54" t="n"/>
+      <c r="AG3" s="54" t="n"/>
+      <c r="AH3" s="54" t="n"/>
+      <c r="AI3" s="54" t="n"/>
+      <c r="AJ3" s="54" t="n"/>
+      <c r="AK3" s="54" t="n"/>
+      <c r="AL3" s="52" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="51" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n"/>
-      <c r="C4" s="19" t="inlineStr">
+      <c r="B4" s="52" t="n"/>
+      <c r="C4" s="55" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="20" t="n"/>
-      <c r="F4" s="20" t="n"/>
-      <c r="G4" s="20" t="n"/>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="20" t="n"/>
-      <c r="J4" s="20" t="n"/>
-      <c r="K4" s="20" t="n"/>
-      <c r="L4" s="20" t="n"/>
-      <c r="M4" s="20" t="n"/>
-      <c r="N4" s="20" t="n"/>
-      <c r="O4" s="20" t="n"/>
-      <c r="P4" s="20" t="n"/>
-      <c r="Q4" s="20" t="n"/>
-      <c r="R4" s="20" t="n"/>
-      <c r="S4" s="20" t="n"/>
-      <c r="T4" s="20" t="n"/>
-      <c r="U4" s="20" t="n"/>
-      <c r="V4" s="20" t="n"/>
-      <c r="W4" s="20" t="n"/>
-      <c r="X4" s="20" t="n"/>
-      <c r="Y4" s="20" t="n"/>
-      <c r="Z4" s="20" t="n"/>
-      <c r="AA4" s="20" t="n"/>
-      <c r="AB4" s="20" t="n"/>
-      <c r="AC4" s="20" t="n"/>
-      <c r="AD4" s="20" t="n"/>
-      <c r="AE4" s="20" t="n"/>
-      <c r="AF4" s="20" t="n"/>
-      <c r="AG4" s="20" t="n"/>
-      <c r="AH4" s="20" t="n"/>
-      <c r="AI4" s="20" t="n"/>
-      <c r="AJ4" s="20" t="n"/>
-      <c r="AK4" s="20" t="n"/>
-      <c r="AL4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
+      <c r="D4" s="54" t="n"/>
+      <c r="E4" s="54" t="n"/>
+      <c r="F4" s="54" t="n"/>
+      <c r="G4" s="54" t="n"/>
+      <c r="H4" s="54" t="n"/>
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="54" t="n"/>
+      <c r="K4" s="54" t="n"/>
+      <c r="L4" s="54" t="n"/>
+      <c r="M4" s="54" t="n"/>
+      <c r="N4" s="54" t="n"/>
+      <c r="O4" s="54" t="n"/>
+      <c r="P4" s="54" t="n"/>
+      <c r="Q4" s="54" t="n"/>
+      <c r="R4" s="54" t="n"/>
+      <c r="S4" s="54" t="n"/>
+      <c r="T4" s="54" t="n"/>
+      <c r="U4" s="54" t="n"/>
+      <c r="V4" s="54" t="n"/>
+      <c r="W4" s="54" t="n"/>
+      <c r="X4" s="54" t="n"/>
+      <c r="Y4" s="54" t="n"/>
+      <c r="Z4" s="54" t="n"/>
+      <c r="AA4" s="54" t="n"/>
+      <c r="AB4" s="54" t="n"/>
+      <c r="AC4" s="54" t="n"/>
+      <c r="AD4" s="54" t="n"/>
+      <c r="AE4" s="54" t="n"/>
+      <c r="AF4" s="54" t="n"/>
+      <c r="AG4" s="54" t="n"/>
+      <c r="AH4" s="54" t="n"/>
+      <c r="AI4" s="54" t="n"/>
+      <c r="AJ4" s="54" t="n"/>
+      <c r="AK4" s="54" t="n"/>
+      <c r="AL4" s="52" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="51" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n"/>
-      <c r="C5" s="19" t="inlineStr">
+      <c r="B5" s="52" t="n"/>
+      <c r="C5" s="55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="20" t="n"/>
-      <c r="F5" s="20" t="n"/>
-      <c r="G5" s="20" t="n"/>
-      <c r="H5" s="20" t="n"/>
-      <c r="I5" s="20" t="n"/>
-      <c r="J5" s="20" t="n"/>
-      <c r="K5" s="20" t="n"/>
-      <c r="L5" s="20" t="n"/>
-      <c r="M5" s="20" t="n"/>
-      <c r="N5" s="20" t="n"/>
-      <c r="O5" s="20" t="n"/>
-      <c r="P5" s="20" t="n"/>
-      <c r="Q5" s="20" t="n"/>
-      <c r="R5" s="20" t="n"/>
-      <c r="S5" s="20" t="n"/>
-      <c r="T5" s="20" t="n"/>
-      <c r="U5" s="20" t="n"/>
-      <c r="V5" s="20" t="n"/>
-      <c r="W5" s="20" t="n"/>
-      <c r="X5" s="20" t="n"/>
-      <c r="Y5" s="20" t="n"/>
-      <c r="Z5" s="20" t="n"/>
-      <c r="AA5" s="20" t="n"/>
-      <c r="AB5" s="20" t="n"/>
-      <c r="AC5" s="20" t="n"/>
-      <c r="AD5" s="20" t="n"/>
-      <c r="AE5" s="20" t="n"/>
-      <c r="AF5" s="20" t="n"/>
-      <c r="AG5" s="20" t="n"/>
-      <c r="AH5" s="20" t="n"/>
-      <c r="AI5" s="20" t="n"/>
-      <c r="AJ5" s="20" t="n"/>
-      <c r="AK5" s="20" t="n"/>
-      <c r="AL5" s="18" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
+      <c r="D5" s="54" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="54" t="n"/>
+      <c r="G5" s="54" t="n"/>
+      <c r="H5" s="54" t="n"/>
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="54" t="n"/>
+      <c r="K5" s="54" t="n"/>
+      <c r="L5" s="54" t="n"/>
+      <c r="M5" s="54" t="n"/>
+      <c r="N5" s="54" t="n"/>
+      <c r="O5" s="54" t="n"/>
+      <c r="P5" s="54" t="n"/>
+      <c r="Q5" s="54" t="n"/>
+      <c r="R5" s="54" t="n"/>
+      <c r="S5" s="54" t="n"/>
+      <c r="T5" s="54" t="n"/>
+      <c r="U5" s="54" t="n"/>
+      <c r="V5" s="54" t="n"/>
+      <c r="W5" s="54" t="n"/>
+      <c r="X5" s="54" t="n"/>
+      <c r="Y5" s="54" t="n"/>
+      <c r="Z5" s="54" t="n"/>
+      <c r="AA5" s="54" t="n"/>
+      <c r="AB5" s="54" t="n"/>
+      <c r="AC5" s="54" t="n"/>
+      <c r="AD5" s="54" t="n"/>
+      <c r="AE5" s="54" t="n"/>
+      <c r="AF5" s="54" t="n"/>
+      <c r="AG5" s="54" t="n"/>
+      <c r="AH5" s="54" t="n"/>
+      <c r="AI5" s="54" t="n"/>
+      <c r="AJ5" s="54" t="n"/>
+      <c r="AK5" s="54" t="n"/>
+      <c r="AL5" s="52" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="18" t="n"/>
-      <c r="C6" s="19" t="inlineStr">
+      <c r="B6" s="52" t="n"/>
+      <c r="C6" s="55" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="20" t="n"/>
-      <c r="E6" s="20" t="n"/>
-      <c r="F6" s="20" t="n"/>
-      <c r="G6" s="20" t="n"/>
-      <c r="H6" s="20" t="n"/>
-      <c r="I6" s="20" t="n"/>
-      <c r="J6" s="20" t="n"/>
-      <c r="K6" s="20" t="n"/>
-      <c r="L6" s="20" t="n"/>
-      <c r="M6" s="20" t="n"/>
-      <c r="N6" s="20" t="n"/>
-      <c r="O6" s="20" t="n"/>
-      <c r="P6" s="20" t="n"/>
-      <c r="Q6" s="20" t="n"/>
-      <c r="R6" s="20" t="n"/>
-      <c r="S6" s="20" t="n"/>
-      <c r="T6" s="20" t="n"/>
-      <c r="U6" s="20" t="n"/>
-      <c r="V6" s="20" t="n"/>
-      <c r="W6" s="20" t="n"/>
-      <c r="X6" s="20" t="n"/>
-      <c r="Y6" s="20" t="n"/>
-      <c r="Z6" s="20" t="n"/>
-      <c r="AA6" s="20" t="n"/>
-      <c r="AB6" s="20" t="n"/>
-      <c r="AC6" s="20" t="n"/>
-      <c r="AD6" s="20" t="n"/>
-      <c r="AE6" s="20" t="n"/>
-      <c r="AF6" s="20" t="n"/>
-      <c r="AG6" s="20" t="n"/>
-      <c r="AH6" s="20" t="n"/>
-      <c r="AI6" s="20" t="n"/>
-      <c r="AJ6" s="20" t="n"/>
-      <c r="AK6" s="20" t="n"/>
-      <c r="AL6" s="18" t="n"/>
+      <c r="D6" s="54" t="n"/>
+      <c r="E6" s="54" t="n"/>
+      <c r="F6" s="54" t="n"/>
+      <c r="G6" s="54" t="n"/>
+      <c r="H6" s="54" t="n"/>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="54" t="n"/>
+      <c r="K6" s="54" t="n"/>
+      <c r="L6" s="54" t="n"/>
+      <c r="M6" s="54" t="n"/>
+      <c r="N6" s="54" t="n"/>
+      <c r="O6" s="54" t="n"/>
+      <c r="P6" s="54" t="n"/>
+      <c r="Q6" s="54" t="n"/>
+      <c r="R6" s="54" t="n"/>
+      <c r="S6" s="54" t="n"/>
+      <c r="T6" s="54" t="n"/>
+      <c r="U6" s="54" t="n"/>
+      <c r="V6" s="54" t="n"/>
+      <c r="W6" s="54" t="n"/>
+      <c r="X6" s="54" t="n"/>
+      <c r="Y6" s="54" t="n"/>
+      <c r="Z6" s="54" t="n"/>
+      <c r="AA6" s="54" t="n"/>
+      <c r="AB6" s="54" t="n"/>
+      <c r="AC6" s="54" t="n"/>
+      <c r="AD6" s="54" t="n"/>
+      <c r="AE6" s="54" t="n"/>
+      <c r="AF6" s="54" t="n"/>
+      <c r="AG6" s="54" t="n"/>
+      <c r="AH6" s="54" t="n"/>
+      <c r="AI6" s="54" t="n"/>
+      <c r="AJ6" s="54" t="n"/>
+      <c r="AK6" s="54" t="n"/>
+      <c r="AL6" s="52" t="n"/>
     </row>
     <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="21" t="inlineStr">
+      <c r="A7" s="56" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="18" t="n"/>
+      <c r="B7" s="52" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -1092,43 +1533,43 @@
           <t>From: (sector in row)</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="10" t="n"/>
-      <c r="O8" s="10" t="n"/>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="R8" s="10" t="n"/>
-      <c r="S8" s="10" t="n"/>
-      <c r="T8" s="10" t="n"/>
-      <c r="U8" s="10" t="n"/>
-      <c r="V8" s="10" t="n"/>
-      <c r="W8" s="10" t="n"/>
-      <c r="X8" s="10" t="n"/>
-      <c r="Y8" s="10" t="n"/>
-      <c r="Z8" s="10" t="n"/>
-      <c r="AA8" s="10" t="n"/>
-      <c r="AB8" s="10" t="n"/>
-      <c r="AC8" s="10" t="n"/>
-      <c r="AD8" s="10" t="n"/>
-      <c r="AE8" s="10" t="n"/>
-      <c r="AF8" s="10" t="n"/>
-      <c r="AG8" s="10" t="n"/>
-      <c r="AH8" s="10" t="n"/>
-      <c r="AI8" s="10" t="n"/>
-      <c r="AJ8" s="10" t="n"/>
-      <c r="AK8" s="10" t="n"/>
-      <c r="AL8" s="10" t="n"/>
+      <c r="B8" s="10" t="inlineStr"/>
+      <c r="C8" s="10" t="inlineStr"/>
+      <c r="D8" s="10" t="inlineStr"/>
+      <c r="E8" s="10" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr"/>
+      <c r="G8" s="10" t="inlineStr"/>
+      <c r="H8" s="10" t="inlineStr"/>
+      <c r="I8" s="10" t="inlineStr"/>
+      <c r="J8" s="10" t="inlineStr"/>
+      <c r="K8" s="10" t="inlineStr"/>
+      <c r="L8" s="10" t="inlineStr"/>
+      <c r="M8" s="10" t="inlineStr"/>
+      <c r="N8" s="10" t="inlineStr"/>
+      <c r="O8" s="10" t="inlineStr"/>
+      <c r="P8" s="10" t="inlineStr"/>
+      <c r="Q8" s="10" t="inlineStr"/>
+      <c r="R8" s="10" t="inlineStr"/>
+      <c r="S8" s="10" t="inlineStr"/>
+      <c r="T8" s="10" t="inlineStr"/>
+      <c r="U8" s="10" t="inlineStr"/>
+      <c r="V8" s="10" t="inlineStr"/>
+      <c r="W8" s="10" t="inlineStr"/>
+      <c r="X8" s="10" t="inlineStr"/>
+      <c r="Y8" s="10" t="inlineStr"/>
+      <c r="Z8" s="10" t="inlineStr"/>
+      <c r="AA8" s="10" t="inlineStr"/>
+      <c r="AB8" s="10" t="inlineStr"/>
+      <c r="AC8" s="10" t="inlineStr"/>
+      <c r="AD8" s="10" t="inlineStr"/>
+      <c r="AE8" s="10" t="inlineStr"/>
+      <c r="AF8" s="10" t="inlineStr"/>
+      <c r="AG8" s="10" t="inlineStr"/>
+      <c r="AH8" s="10" t="inlineStr"/>
+      <c r="AI8" s="10" t="inlineStr"/>
+      <c r="AJ8" s="10" t="inlineStr"/>
+      <c r="AK8" s="10" t="inlineStr"/>
+      <c r="AL8" s="10" t="inlineStr"/>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" s="11" t="inlineStr">
@@ -1136,7 +1577,7 @@
           <t>LABR: Compensation of employees</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n"/>
+      <c r="B9" s="10" t="inlineStr"/>
       <c r="C9" s="12" t="n">
         <v>55762.914</v>
       </c>
@@ -1252,7 +1693,7 @@
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n"/>
+      <c r="B10" s="10" t="inlineStr"/>
       <c r="C10" s="13" t="n">
         <v>11926.959</v>
       </c>
@@ -1368,7 +1809,7 @@
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n"/>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="12" t="n">
         <v>126190.226</v>
       </c>
@@ -1510,20 +1951,1427 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.42578125" customWidth="1" min="1" max="1"/>
+    <col width="2.42578125" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" min="3" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="27">
+        <f>DotStatQuery(B1)</f>
+        <v/>
+      </c>
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1">
+      <c r="A2" s="28" t="inlineStr">
+        <is>
+          <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="57" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B3" s="52" t="n"/>
+      <c r="C3" s="58" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D3" s="54" t="n"/>
+      <c r="E3" s="54" t="n"/>
+      <c r="F3" s="54" t="n"/>
+      <c r="G3" s="54" t="n"/>
+      <c r="H3" s="54" t="n"/>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="54" t="n"/>
+      <c r="K3" s="54" t="n"/>
+      <c r="L3" s="54" t="n"/>
+      <c r="M3" s="54" t="n"/>
+      <c r="N3" s="52" t="n"/>
+    </row>
+    <row r="4" ht="24" customHeight="1">
+      <c r="A4" s="59" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B4" s="52" t="n"/>
+      <c r="C4" s="60" t="inlineStr">
+        <is>
+          <t>PROD: Production (gross output), current prices</t>
+        </is>
+      </c>
+      <c r="D4" s="52" t="n"/>
+      <c r="E4" s="60" t="inlineStr">
+        <is>
+          <t>VALU: Value added, current prices</t>
+        </is>
+      </c>
+      <c r="F4" s="52" t="n"/>
+      <c r="G4" s="60" t="inlineStr">
+        <is>
+          <t>LABR: Labour costs (compensation of employees)</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="n"/>
+      <c r="I4" s="60" t="inlineStr">
+        <is>
+          <t>GOPS: Gross operating surplus and mixed income</t>
+        </is>
+      </c>
+      <c r="J4" s="52" t="n"/>
+      <c r="K4" s="60" t="inlineStr">
+        <is>
+          <t>OTXS: Other taxes less subsidies on production</t>
+        </is>
+      </c>
+      <c r="L4" s="52" t="n"/>
+      <c r="M4" s="60" t="inlineStr">
+        <is>
+          <t>EMPN: Number of persons engaged (total employment)</t>
+        </is>
+      </c>
+      <c r="N4" s="52" t="n"/>
+    </row>
+    <row r="5" ht="63" customHeight="1">
+      <c r="A5" s="59" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="B5" s="52" t="n"/>
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="E5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="H5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="I5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="J5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="K5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="L5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="M5" s="38" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="N5" s="38" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B6" s="40" t="inlineStr"/>
+      <c r="C6" s="40" t="inlineStr"/>
+      <c r="D6" s="40" t="inlineStr"/>
+      <c r="E6" s="40" t="inlineStr"/>
+      <c r="F6" s="40" t="inlineStr"/>
+      <c r="G6" s="40" t="inlineStr"/>
+      <c r="H6" s="40" t="inlineStr"/>
+      <c r="I6" s="40" t="inlineStr"/>
+      <c r="J6" s="40" t="inlineStr"/>
+      <c r="K6" s="40" t="inlineStr"/>
+      <c r="L6" s="40" t="inlineStr"/>
+      <c r="M6" s="40" t="inlineStr"/>
+      <c r="N6" s="40" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="41" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B7" s="40" t="inlineStr"/>
+      <c r="C7" s="42" t="n">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="42" t="n">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="42" t="n">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="42" t="n">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="42" t="n">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="42" t="n">
+        <v>151</v>
+      </c>
+      <c r="L7" s="42" t="n">
+        <v>48</v>
+      </c>
+      <c r="M7" s="42" t="n">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="42" t="n">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="41" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B8" s="40" t="inlineStr"/>
+      <c r="C8" s="43" t="n">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>4268.858</v>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="43" t="n">
+        <v>2190.244</v>
+      </c>
+      <c r="G8" s="43" t="n">
+        <v>1169.679</v>
+      </c>
+      <c r="H8" s="43" t="n">
+        <v>999.325</v>
+      </c>
+      <c r="I8" s="43" t="n">
+        <v>1540.592</v>
+      </c>
+      <c r="J8" s="43" t="n">
+        <v>1143.929</v>
+      </c>
+      <c r="K8" s="43" t="n">
+        <v>40.412</v>
+      </c>
+      <c r="L8" s="43" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="43" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="43" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="41" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B9" s="40" t="inlineStr"/>
+      <c r="C9" s="42" t="n">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="42" t="n">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="42" t="n">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="42" t="n">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="42" t="n">
+        <v>2219.7</v>
+      </c>
+      <c r="I9" s="42" t="n">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="42" t="n">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="42" t="n">
+        <v>-89.40000000000001</v>
+      </c>
+      <c r="L9" s="42" t="n">
+        <v>-84.09999999999999</v>
+      </c>
+      <c r="M9" s="42" t="n">
+        <v>44</v>
+      </c>
+      <c r="N9" s="42" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B10" s="40" t="inlineStr"/>
+      <c r="C10" s="43" t="n">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>1176806.697</v>
+      </c>
+      <c r="E10" s="43" t="n">
+        <v>1262313.613</v>
+      </c>
+      <c r="F10" s="43" t="n">
+        <v>414529.823</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="43" t="n">
+        <v>825702.421</v>
+      </c>
+      <c r="J10" s="43" t="n">
+        <v>207059.061</v>
+      </c>
+      <c r="K10" s="43" t="n">
+        <v>25993.349</v>
+      </c>
+      <c r="L10" s="43" t="n">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="43" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="N10" s="43" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B11" s="40" t="inlineStr"/>
+      <c r="C11" s="42" t="n">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="42" t="n">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="42" t="n">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="42" t="n">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="42" t="n">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="42" t="n">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="42" t="n">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="42" t="n">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="42" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="42" t="n">
+        <v>30.922</v>
+      </c>
+      <c r="N11" s="42" t="n">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="41" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="inlineStr"/>
+      <c r="C12" s="43" t="n">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="43" t="n">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="43" t="n">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="43" t="n">
+        <v>85</v>
+      </c>
+      <c r="L12" s="43" t="n">
+        <v>98</v>
+      </c>
+      <c r="M12" s="43" t="n">
+        <v>11.451</v>
+      </c>
+      <c r="N12" s="43" t="n">
+        <v>22.722</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="41" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B13" s="40" t="inlineStr"/>
+      <c r="C13" s="42" t="n">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="42" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="42" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="42" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="42" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I13" s="42" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" s="42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="42" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="42" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="41" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B14" s="40" t="inlineStr"/>
+      <c r="C14" s="43" t="n">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="43" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="43" t="n">
+        <v>775</v>
+      </c>
+      <c r="H14" s="43" t="n">
+        <v>264</v>
+      </c>
+      <c r="I14" s="43" t="n">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="43" t="n">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="43" t="n">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="43" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="43" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="43" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="41" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B15" s="40" t="inlineStr"/>
+      <c r="C15" s="42" t="n">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="42" t="n">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="42" t="n">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="42" t="n">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="42" t="n">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="42" t="n">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="42" t="n">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="42" t="n">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="42" t="n">
+        <v>772</v>
+      </c>
+      <c r="L15" s="42" t="n">
+        <v>341</v>
+      </c>
+      <c r="M15" s="42" t="n">
+        <v>111</v>
+      </c>
+      <c r="N15" s="42" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="41" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B16" s="40" t="inlineStr"/>
+      <c r="C16" s="43" t="n">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="43" t="n">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="43" t="n">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="43" t="n">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="43" t="n">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="43" t="n">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="43" t="n">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="43" t="n">
+        <v>178</v>
+      </c>
+      <c r="L16" s="43" t="n">
+        <v>66</v>
+      </c>
+      <c r="M16" s="43" t="n">
+        <v>348</v>
+      </c>
+      <c r="N16" s="43" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="41" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B17" s="40" t="inlineStr"/>
+      <c r="C17" s="42" t="n">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="42" t="n">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="42" t="n">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="42" t="n">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="42" t="n">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="42" t="n">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="42" t="n">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="42" t="n">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="42" t="n">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="42" t="n">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="42" t="n">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="42" t="n">
+        <v>20.789</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B18" s="40" t="inlineStr"/>
+      <c r="C18" s="43" t="n">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="43" t="n">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="43" t="n">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="43" t="n">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="43" t="n">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="43" t="n">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="43" t="n">
+        <v>4864.1</v>
+      </c>
+      <c r="J18" s="43" t="n">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="43" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="43" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="43" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="43" t="n">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B19" s="40" t="inlineStr"/>
+      <c r="C19" s="42" t="n">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="42" t="n">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="42" t="n">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="42" t="n">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="42" t="n">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="42" t="n">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="J19" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="K19" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L19" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="M19" s="42" t="n">
+        <v>328</v>
+      </c>
+      <c r="N19" s="42" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="41" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="B20" s="40" t="inlineStr"/>
+      <c r="C20" s="43" t="n">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="43" t="n">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="43" t="n">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="43" t="n">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="43" t="n">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="43" t="n">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="43" t="n">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="43" t="n">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="43" t="n">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="43" t="n">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="43" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="43" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="41" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B21" s="40" t="inlineStr"/>
+      <c r="C21" s="42" t="n">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="42" t="n">
+        <v>156.45</v>
+      </c>
+      <c r="E21" s="42" t="n">
+        <v>61.083</v>
+      </c>
+      <c r="F21" s="42" t="n">
+        <v>78.70399999999999</v>
+      </c>
+      <c r="G21" s="42" t="n">
+        <v>33.743</v>
+      </c>
+      <c r="H21" s="42" t="n">
+        <v>41.521</v>
+      </c>
+      <c r="I21" s="42" t="n">
+        <v>26.464</v>
+      </c>
+      <c r="J21" s="42" t="n">
+        <v>36.499</v>
+      </c>
+      <c r="K21" s="42" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="42" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="M21" s="42" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="N21" s="42" t="n">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="44" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B22" s="40" t="inlineStr"/>
+      <c r="C22" s="43" t="n">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="43" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="43" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="43" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="43" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="43" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="K22" s="43" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="43" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B23" s="40" t="inlineStr"/>
+      <c r="C23" s="42" t="n">
+        <v>720647.2610000001</v>
+      </c>
+      <c r="D23" s="42" t="n">
+        <v>275739.487</v>
+      </c>
+      <c r="E23" s="42" t="n">
+        <v>210925.784</v>
+      </c>
+      <c r="F23" s="42" t="n">
+        <v>65884.478</v>
+      </c>
+      <c r="G23" s="42" t="n">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="42" t="n">
+        <v>25493.958</v>
+      </c>
+      <c r="I23" s="42" t="n">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="42" t="n">
+        <v>39511.929</v>
+      </c>
+      <c r="K23" s="42" t="n">
+        <v>2228.254</v>
+      </c>
+      <c r="L23" s="42" t="n">
+        <v>878.591</v>
+      </c>
+      <c r="M23" s="42" t="n">
+        <v>155.355</v>
+      </c>
+      <c r="N23" s="42" t="n">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="41" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B24" s="40" t="inlineStr"/>
+      <c r="C24" s="43" t="n">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="43" t="n">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="43" t="n">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="43" t="n">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="43" t="n">
+        <v>902</v>
+      </c>
+      <c r="I24" s="43" t="n">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="43" t="n">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="43" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="43" t="n">
+        <v>43</v>
+      </c>
+      <c r="N24" s="43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="41" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B25" s="40" t="inlineStr"/>
+      <c r="C25" s="42" t="n">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="42" t="n">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="42" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="42" t="n">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="42" t="n">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="42" t="n">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="42" t="n">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="42" t="n">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N25" s="42" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="41" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B26" s="40" t="inlineStr"/>
+      <c r="C26" s="43" t="n">
+        <v>4356.484</v>
+      </c>
+      <c r="D26" s="43" t="n">
+        <v>1175.929</v>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>878.677</v>
+      </c>
+      <c r="F26" s="43" t="n">
+        <v>505.164</v>
+      </c>
+      <c r="G26" s="43" t="n">
+        <v>356.761</v>
+      </c>
+      <c r="H26" s="43" t="n">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="43" t="n">
+        <v>503.592</v>
+      </c>
+      <c r="J26" s="43" t="n">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="43" t="n">
+        <v>18.324</v>
+      </c>
+      <c r="L26" s="43" t="n">
+        <v>75.83499999999999</v>
+      </c>
+      <c r="M26" s="43" t="n">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="43" t="n">
+        <v>6.227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="41" t="inlineStr">
+        <is>
+          <t>Slovak Republic</t>
+        </is>
+      </c>
+      <c r="B27" s="40" t="inlineStr"/>
+      <c r="C27" s="42" t="n">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="42" t="n">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="42" t="n">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="42" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="42" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="H27" s="42" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="42" t="n">
+        <v>492.097</v>
+      </c>
+      <c r="J27" s="42" t="n">
+        <v>9.335000000000001</v>
+      </c>
+      <c r="K27" s="42" t="n">
+        <v>-2.265</v>
+      </c>
+      <c r="L27" s="42" t="n">
+        <v>-0.073</v>
+      </c>
+      <c r="M27" s="42" t="n">
+        <v>8.592000000000001</v>
+      </c>
+      <c r="N27" s="42" t="n">
+        <v>2.228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B28" s="40" t="inlineStr"/>
+      <c r="C28" s="43" t="n">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="43" t="n">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="43" t="n">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="43" t="n">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="43" t="n">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="43" t="n">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="43" t="n">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="43" t="n">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="43" t="n">
+        <v>50</v>
+      </c>
+      <c r="L28" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" s="43" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="43" t="n">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="41" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B29" s="40" t="inlineStr"/>
+      <c r="C29" s="42" t="n">
+        <v>23031.4167</v>
+      </c>
+      <c r="D29" s="42" t="n">
+        <v>80032.2044</v>
+      </c>
+      <c r="E29" s="42" t="n">
+        <v>7470.1342</v>
+      </c>
+      <c r="F29" s="42" t="n">
+        <v>28686.7759</v>
+      </c>
+      <c r="G29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="H29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="I29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="J29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="K29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L29" s="42" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="M29" s="42" t="n">
+        <v>29.101</v>
+      </c>
+      <c r="N29" s="42" t="n">
+        <v>46.713</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="41" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B30" s="40" t="inlineStr"/>
+      <c r="C30" s="43" t="n">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="43" t="n">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="43" t="n">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="43" t="n">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="43" t="n">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="43" t="n">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="43" t="n">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="43" t="n">
+        <v>59</v>
+      </c>
+      <c r="L30" s="43" t="n">
+        <v>13</v>
+      </c>
+      <c r="M30" s="43" t="n">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="43" t="n">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="41" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B31" s="40" t="inlineStr"/>
+      <c r="C31" s="42" t="n">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="42" t="n">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="42" t="n">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="42" t="n">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="42" t="n">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="42" t="n">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="42" t="n">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="42" t="n">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="42" t="n">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="42" t="n">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="42" t="n">
+        <v>534</v>
+      </c>
+      <c r="N31" s="42" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="45" t="inlineStr">
+        <is>
+          <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="46" t="inlineStr">
+        <is>
+          <t>Legend:</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="47" t="inlineStr">
+        <is>
+          <t>c:</t>
+        </is>
+      </c>
+      <c r="B34" s="46" t="inlineStr">
+        <is>
+          <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="47" t="inlineStr">
+        <is>
+          <t>b:</t>
+        </is>
+      </c>
+      <c r="B35" s="46" t="inlineStr">
+        <is>
+          <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" r:id="rId32"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="37"/>
+    <col width="24.85546875" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" customWidth="1" min="2" max="38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -1577,137 +3425,142 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 20T21</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="K1" s="48" t="inlineStr">
+        <is>
+          <t>ISIC 20</t>
+        </is>
+      </c>
+      <c r="L1" s="48" t="inlineStr">
+        <is>
+          <t>ISIC 21</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>ISIC 23</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>ISIC 24</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>ISIC 35T39</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AD1" s="4" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AE1" s="4" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AF1" s="4" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AG1" s="4" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AH1" s="4" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AI1" s="4" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AJ1" s="4" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AK1" s="4" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AL1" s="4" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
@@ -1746,85 +3599,88 @@
       <c r="J2" t="n">
         <v>118685000</v>
       </c>
-      <c r="K2" t="n">
-        <v>121941000</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="49" t="n">
+        <v>70568031.4825415</v>
+      </c>
+      <c r="L2" s="49" t="n">
+        <v>51372968.5174585</v>
+      </c>
+      <c r="M2" t="n">
         <v>58553000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>112433000</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24283000</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>143330000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>491016000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>40162000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>96428000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>99953000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>500950000</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>2862120000</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>4727832000</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1445966000</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>2125263000</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>370389000</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>383692000</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>42792000</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1880567000</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>506937000</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>1293077000</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>14398860000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>428925000</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>6262405000</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>318637000</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>116370000</v>
       </c>
     </row>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4095" yWindow="870" windowWidth="24090" windowHeight="15945" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32440" yWindow="6020" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+  </externalReferences>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,12 +119,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -162,18 +159,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -188,19 +185,6 @@
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFC0C0C0"/>
       </top>
@@ -234,6 +218,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -259,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -299,66 +345,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -390,23 +379,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -415,12 +403,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,6 +425,74 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,6 +734,174 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="OECD EMPN"/>
+      <sheetName val="Filtered OECD Data"/>
+      <sheetName val="U.S. Data for ISIC Splits"/>
+      <sheetName val="BEbIC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="38">
+          <cell r="B38">
+            <v>2253</v>
+          </cell>
+          <cell r="C38">
+            <v>262.60000000000002</v>
+          </cell>
+          <cell r="D38">
+            <v>135.4</v>
+          </cell>
+          <cell r="E38">
+            <v>373</v>
+          </cell>
+          <cell r="F38">
+            <v>1783</v>
+          </cell>
+          <cell r="G38">
+            <v>442</v>
+          </cell>
+          <cell r="H38">
+            <v>399</v>
+          </cell>
+          <cell r="I38">
+            <v>842</v>
+          </cell>
+          <cell r="J38">
+            <v>111</v>
+          </cell>
+          <cell r="K38">
+            <v>820</v>
+          </cell>
+          <cell r="L38">
+            <v>690</v>
+          </cell>
+          <cell r="M38">
+            <v>412</v>
+          </cell>
+          <cell r="N38">
+            <v>395</v>
+          </cell>
+          <cell r="O38">
+            <v>1483</v>
+          </cell>
+          <cell r="P38">
+            <v>1058</v>
+          </cell>
+          <cell r="Q38">
+            <v>382</v>
+          </cell>
+          <cell r="R38">
+            <v>1126</v>
+          </cell>
+          <cell r="S38">
+            <v>922</v>
+          </cell>
+          <cell r="T38">
+            <v>695</v>
+          </cell>
+          <cell r="U38">
+            <v>1355.5</v>
+          </cell>
+          <cell r="V38">
+            <v>975</v>
+          </cell>
+          <cell r="W38">
+            <v>8240</v>
+          </cell>
+          <cell r="X38">
+            <v>23893.3</v>
+          </cell>
+          <cell r="Y38">
+            <v>5988</v>
+          </cell>
+          <cell r="Z38">
+            <v>13295</v>
+          </cell>
+          <cell r="AA38">
+            <v>1686.9</v>
+          </cell>
+          <cell r="AB38">
+            <v>823.1</v>
+          </cell>
+          <cell r="AC38">
+            <v>2455</v>
+          </cell>
+          <cell r="AD38">
+            <v>6300</v>
+          </cell>
+          <cell r="AE38">
+            <v>1958</v>
+          </cell>
+          <cell r="AF38">
+            <v>19863</v>
+          </cell>
+          <cell r="AG38">
+            <v>13365</v>
+          </cell>
+          <cell r="AH38">
+            <v>14114</v>
+          </cell>
+          <cell r="AI38">
+            <v>19522</v>
+          </cell>
+          <cell r="AJ38">
+            <v>8780.2000000000007</v>
+          </cell>
+          <cell r="AK38">
+            <v>329.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="D6">
+            <v>64800</v>
+          </cell>
+          <cell r="E6">
+            <v>185400</v>
+          </cell>
+          <cell r="G6">
+            <v>531100</v>
+          </cell>
+          <cell r="H6">
+            <v>284200</v>
+          </cell>
+          <cell r="J6">
+            <v>93600</v>
+          </cell>
+          <cell r="K6">
+            <v>310900</v>
+          </cell>
+          <cell r="M6">
+            <v>209500</v>
+          </cell>
+          <cell r="N6">
+            <v>182400</v>
+          </cell>
+          <cell r="P6">
+            <v>397500</v>
+          </cell>
+          <cell r="Q6">
+            <v>119700</v>
+          </cell>
+          <cell r="R6">
+            <v>50300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,15 +1171,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="77.5703125" customWidth="1" min="2" max="2"/>
+    <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -962,7 +1195,7 @@
           <t>Source:</t>
         </is>
       </c>
-      <c r="B3" s="50" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>Most Industries</t>
         </is>
@@ -1002,7 +1235,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="50" t="inlineStr">
+      <c r="B10" s="29" t="inlineStr">
         <is>
           <t>Chemicals and Pharmaceuticals Industries</t>
         </is>
@@ -1090,6 +1323,13 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>2012 USD per 2015 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Update 2/25/2021: Break apart ISIC 05 and ISIC 06</t>
         </is>
       </c>
     </row>
@@ -1112,21 +1352,22 @@
   <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col width="27.42578125" customWidth="1" style="6" min="1" max="1"/>
-    <col width="2.42578125" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.140625" customWidth="1" style="6" min="39" max="16384"/>
+    <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="41"/>
+    <col width="9.1640625" customWidth="1" style="6" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1140,212 +1381,212 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="23.25" customHeight="1">
+    <row r="2" ht="26" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Dataset: Input-Output Tables 2018 edition</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="51" t="inlineStr">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="30" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="52" t="n"/>
-      <c r="C3" s="53" t="inlineStr">
+      <c r="B3" s="31" t="n"/>
+      <c r="C3" s="35" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="54" t="n"/>
-      <c r="E3" s="54" t="n"/>
-      <c r="F3" s="54" t="n"/>
-      <c r="G3" s="54" t="n"/>
-      <c r="H3" s="54" t="n"/>
-      <c r="I3" s="54" t="n"/>
-      <c r="J3" s="54" t="n"/>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="54" t="n"/>
-      <c r="M3" s="54" t="n"/>
-      <c r="N3" s="54" t="n"/>
-      <c r="O3" s="54" t="n"/>
-      <c r="P3" s="54" t="n"/>
-      <c r="Q3" s="54" t="n"/>
-      <c r="R3" s="54" t="n"/>
-      <c r="S3" s="54" t="n"/>
-      <c r="T3" s="54" t="n"/>
-      <c r="U3" s="54" t="n"/>
-      <c r="V3" s="54" t="n"/>
-      <c r="W3" s="54" t="n"/>
-      <c r="X3" s="54" t="n"/>
-      <c r="Y3" s="54" t="n"/>
-      <c r="Z3" s="54" t="n"/>
-      <c r="AA3" s="54" t="n"/>
-      <c r="AB3" s="54" t="n"/>
-      <c r="AC3" s="54" t="n"/>
-      <c r="AD3" s="54" t="n"/>
-      <c r="AE3" s="54" t="n"/>
-      <c r="AF3" s="54" t="n"/>
-      <c r="AG3" s="54" t="n"/>
-      <c r="AH3" s="54" t="n"/>
-      <c r="AI3" s="54" t="n"/>
-      <c r="AJ3" s="54" t="n"/>
-      <c r="AK3" s="54" t="n"/>
-      <c r="AL3" s="52" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="51" t="inlineStr">
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="n"/>
+      <c r="H3" s="33" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="33" t="n"/>
+      <c r="K3" s="33" t="n"/>
+      <c r="L3" s="33" t="n"/>
+      <c r="M3" s="33" t="n"/>
+      <c r="N3" s="33" t="n"/>
+      <c r="O3" s="33" t="n"/>
+      <c r="P3" s="33" t="n"/>
+      <c r="Q3" s="33" t="n"/>
+      <c r="R3" s="33" t="n"/>
+      <c r="S3" s="33" t="n"/>
+      <c r="T3" s="33" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="33" t="n"/>
+      <c r="W3" s="33" t="n"/>
+      <c r="X3" s="33" t="n"/>
+      <c r="Y3" s="33" t="n"/>
+      <c r="Z3" s="33" t="n"/>
+      <c r="AA3" s="33" t="n"/>
+      <c r="AB3" s="33" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="33" t="n"/>
+      <c r="AE3" s="33" t="n"/>
+      <c r="AF3" s="33" t="n"/>
+      <c r="AG3" s="33" t="n"/>
+      <c r="AH3" s="33" t="n"/>
+      <c r="AI3" s="33" t="n"/>
+      <c r="AJ3" s="33" t="n"/>
+      <c r="AK3" s="33" t="n"/>
+      <c r="AL3" s="31" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="52" t="n"/>
-      <c r="C4" s="55" t="inlineStr">
+      <c r="B4" s="31" t="n"/>
+      <c r="C4" s="32" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="54" t="n"/>
-      <c r="E4" s="54" t="n"/>
-      <c r="F4" s="54" t="n"/>
-      <c r="G4" s="54" t="n"/>
-      <c r="H4" s="54" t="n"/>
-      <c r="I4" s="54" t="n"/>
-      <c r="J4" s="54" t="n"/>
-      <c r="K4" s="54" t="n"/>
-      <c r="L4" s="54" t="n"/>
-      <c r="M4" s="54" t="n"/>
-      <c r="N4" s="54" t="n"/>
-      <c r="O4" s="54" t="n"/>
-      <c r="P4" s="54" t="n"/>
-      <c r="Q4" s="54" t="n"/>
-      <c r="R4" s="54" t="n"/>
-      <c r="S4" s="54" t="n"/>
-      <c r="T4" s="54" t="n"/>
-      <c r="U4" s="54" t="n"/>
-      <c r="V4" s="54" t="n"/>
-      <c r="W4" s="54" t="n"/>
-      <c r="X4" s="54" t="n"/>
-      <c r="Y4" s="54" t="n"/>
-      <c r="Z4" s="54" t="n"/>
-      <c r="AA4" s="54" t="n"/>
-      <c r="AB4" s="54" t="n"/>
-      <c r="AC4" s="54" t="n"/>
-      <c r="AD4" s="54" t="n"/>
-      <c r="AE4" s="54" t="n"/>
-      <c r="AF4" s="54" t="n"/>
-      <c r="AG4" s="54" t="n"/>
-      <c r="AH4" s="54" t="n"/>
-      <c r="AI4" s="54" t="n"/>
-      <c r="AJ4" s="54" t="n"/>
-      <c r="AK4" s="54" t="n"/>
-      <c r="AL4" s="52" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="51" t="inlineStr">
+      <c r="D4" s="33" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="33" t="n"/>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="n"/>
+      <c r="K4" s="33" t="n"/>
+      <c r="L4" s="33" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="33" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+      <c r="R4" s="33" t="n"/>
+      <c r="S4" s="33" t="n"/>
+      <c r="T4" s="33" t="n"/>
+      <c r="U4" s="33" t="n"/>
+      <c r="V4" s="33" t="n"/>
+      <c r="W4" s="33" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="33" t="n"/>
+      <c r="Z4" s="33" t="n"/>
+      <c r="AA4" s="33" t="n"/>
+      <c r="AB4" s="33" t="n"/>
+      <c r="AC4" s="33" t="n"/>
+      <c r="AD4" s="33" t="n"/>
+      <c r="AE4" s="33" t="n"/>
+      <c r="AF4" s="33" t="n"/>
+      <c r="AG4" s="33" t="n"/>
+      <c r="AH4" s="33" t="n"/>
+      <c r="AI4" s="33" t="n"/>
+      <c r="AJ4" s="33" t="n"/>
+      <c r="AK4" s="33" t="n"/>
+      <c r="AL4" s="31" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="30" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="52" t="n"/>
-      <c r="C5" s="55" t="inlineStr">
+      <c r="B5" s="31" t="n"/>
+      <c r="C5" s="32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="54" t="n"/>
-      <c r="E5" s="54" t="n"/>
-      <c r="F5" s="54" t="n"/>
-      <c r="G5" s="54" t="n"/>
-      <c r="H5" s="54" t="n"/>
-      <c r="I5" s="54" t="n"/>
-      <c r="J5" s="54" t="n"/>
-      <c r="K5" s="54" t="n"/>
-      <c r="L5" s="54" t="n"/>
-      <c r="M5" s="54" t="n"/>
-      <c r="N5" s="54" t="n"/>
-      <c r="O5" s="54" t="n"/>
-      <c r="P5" s="54" t="n"/>
-      <c r="Q5" s="54" t="n"/>
-      <c r="R5" s="54" t="n"/>
-      <c r="S5" s="54" t="n"/>
-      <c r="T5" s="54" t="n"/>
-      <c r="U5" s="54" t="n"/>
-      <c r="V5" s="54" t="n"/>
-      <c r="W5" s="54" t="n"/>
-      <c r="X5" s="54" t="n"/>
-      <c r="Y5" s="54" t="n"/>
-      <c r="Z5" s="54" t="n"/>
-      <c r="AA5" s="54" t="n"/>
-      <c r="AB5" s="54" t="n"/>
-      <c r="AC5" s="54" t="n"/>
-      <c r="AD5" s="54" t="n"/>
-      <c r="AE5" s="54" t="n"/>
-      <c r="AF5" s="54" t="n"/>
-      <c r="AG5" s="54" t="n"/>
-      <c r="AH5" s="54" t="n"/>
-      <c r="AI5" s="54" t="n"/>
-      <c r="AJ5" s="54" t="n"/>
-      <c r="AK5" s="54" t="n"/>
-      <c r="AL5" s="52" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="51" t="inlineStr">
+      <c r="D5" s="33" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="33" t="n"/>
+      <c r="G5" s="33" t="n"/>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="33" t="n"/>
+      <c r="K5" s="33" t="n"/>
+      <c r="L5" s="33" t="n"/>
+      <c r="M5" s="33" t="n"/>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="33" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+      <c r="R5" s="33" t="n"/>
+      <c r="S5" s="33" t="n"/>
+      <c r="T5" s="33" t="n"/>
+      <c r="U5" s="33" t="n"/>
+      <c r="V5" s="33" t="n"/>
+      <c r="W5" s="33" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="33" t="n"/>
+      <c r="Z5" s="33" t="n"/>
+      <c r="AA5" s="33" t="n"/>
+      <c r="AB5" s="33" t="n"/>
+      <c r="AC5" s="33" t="n"/>
+      <c r="AD5" s="33" t="n"/>
+      <c r="AE5" s="33" t="n"/>
+      <c r="AF5" s="33" t="n"/>
+      <c r="AG5" s="33" t="n"/>
+      <c r="AH5" s="33" t="n"/>
+      <c r="AI5" s="33" t="n"/>
+      <c r="AJ5" s="33" t="n"/>
+      <c r="AK5" s="33" t="n"/>
+      <c r="AL5" s="31" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="30" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="52" t="n"/>
-      <c r="C6" s="55" t="inlineStr">
+      <c r="B6" s="31" t="n"/>
+      <c r="C6" s="32" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="54" t="n"/>
-      <c r="E6" s="54" t="n"/>
-      <c r="F6" s="54" t="n"/>
-      <c r="G6" s="54" t="n"/>
-      <c r="H6" s="54" t="n"/>
-      <c r="I6" s="54" t="n"/>
-      <c r="J6" s="54" t="n"/>
-      <c r="K6" s="54" t="n"/>
-      <c r="L6" s="54" t="n"/>
-      <c r="M6" s="54" t="n"/>
-      <c r="N6" s="54" t="n"/>
-      <c r="O6" s="54" t="n"/>
-      <c r="P6" s="54" t="n"/>
-      <c r="Q6" s="54" t="n"/>
-      <c r="R6" s="54" t="n"/>
-      <c r="S6" s="54" t="n"/>
-      <c r="T6" s="54" t="n"/>
-      <c r="U6" s="54" t="n"/>
-      <c r="V6" s="54" t="n"/>
-      <c r="W6" s="54" t="n"/>
-      <c r="X6" s="54" t="n"/>
-      <c r="Y6" s="54" t="n"/>
-      <c r="Z6" s="54" t="n"/>
-      <c r="AA6" s="54" t="n"/>
-      <c r="AB6" s="54" t="n"/>
-      <c r="AC6" s="54" t="n"/>
-      <c r="AD6" s="54" t="n"/>
-      <c r="AE6" s="54" t="n"/>
-      <c r="AF6" s="54" t="n"/>
-      <c r="AG6" s="54" t="n"/>
-      <c r="AH6" s="54" t="n"/>
-      <c r="AI6" s="54" t="n"/>
-      <c r="AJ6" s="54" t="n"/>
-      <c r="AK6" s="54" t="n"/>
-      <c r="AL6" s="52" t="n"/>
-    </row>
-    <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="56" t="inlineStr">
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="33" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="33" t="n"/>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="n"/>
+      <c r="K6" s="33" t="n"/>
+      <c r="L6" s="33" t="n"/>
+      <c r="M6" s="33" t="n"/>
+      <c r="N6" s="33" t="n"/>
+      <c r="O6" s="33" t="n"/>
+      <c r="P6" s="33" t="n"/>
+      <c r="Q6" s="33" t="n"/>
+      <c r="R6" s="33" t="n"/>
+      <c r="S6" s="33" t="n"/>
+      <c r="T6" s="33" t="n"/>
+      <c r="U6" s="33" t="n"/>
+      <c r="V6" s="33" t="n"/>
+      <c r="W6" s="33" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="33" t="n"/>
+      <c r="Z6" s="33" t="n"/>
+      <c r="AA6" s="33" t="n"/>
+      <c r="AB6" s="33" t="n"/>
+      <c r="AC6" s="33" t="n"/>
+      <c r="AD6" s="33" t="n"/>
+      <c r="AE6" s="33" t="n"/>
+      <c r="AF6" s="33" t="n"/>
+      <c r="AG6" s="33" t="n"/>
+      <c r="AH6" s="33" t="n"/>
+      <c r="AI6" s="33" t="n"/>
+      <c r="AJ6" s="33" t="n"/>
+      <c r="AK6" s="33" t="n"/>
+      <c r="AL6" s="31" t="n"/>
+    </row>
+    <row r="7" ht="120" customHeight="1">
+      <c r="A7" s="34" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="52" t="n"/>
+      <c r="B7" s="31" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -1527,57 +1768,57 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" ht="14" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
           <t>From: (sector in row)</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr"/>
-      <c r="C8" s="10" t="inlineStr"/>
-      <c r="D8" s="10" t="inlineStr"/>
-      <c r="E8" s="10" t="inlineStr"/>
-      <c r="F8" s="10" t="inlineStr"/>
-      <c r="G8" s="10" t="inlineStr"/>
-      <c r="H8" s="10" t="inlineStr"/>
-      <c r="I8" s="10" t="inlineStr"/>
-      <c r="J8" s="10" t="inlineStr"/>
-      <c r="K8" s="10" t="inlineStr"/>
-      <c r="L8" s="10" t="inlineStr"/>
-      <c r="M8" s="10" t="inlineStr"/>
-      <c r="N8" s="10" t="inlineStr"/>
-      <c r="O8" s="10" t="inlineStr"/>
-      <c r="P8" s="10" t="inlineStr"/>
-      <c r="Q8" s="10" t="inlineStr"/>
-      <c r="R8" s="10" t="inlineStr"/>
-      <c r="S8" s="10" t="inlineStr"/>
-      <c r="T8" s="10" t="inlineStr"/>
-      <c r="U8" s="10" t="inlineStr"/>
-      <c r="V8" s="10" t="inlineStr"/>
-      <c r="W8" s="10" t="inlineStr"/>
-      <c r="X8" s="10" t="inlineStr"/>
-      <c r="Y8" s="10" t="inlineStr"/>
-      <c r="Z8" s="10" t="inlineStr"/>
-      <c r="AA8" s="10" t="inlineStr"/>
-      <c r="AB8" s="10" t="inlineStr"/>
-      <c r="AC8" s="10" t="inlineStr"/>
-      <c r="AD8" s="10" t="inlineStr"/>
-      <c r="AE8" s="10" t="inlineStr"/>
-      <c r="AF8" s="10" t="inlineStr"/>
-      <c r="AG8" s="10" t="inlineStr"/>
-      <c r="AH8" s="10" t="inlineStr"/>
-      <c r="AI8" s="10" t="inlineStr"/>
-      <c r="AJ8" s="10" t="inlineStr"/>
-      <c r="AK8" s="10" t="inlineStr"/>
-      <c r="AL8" s="10" t="inlineStr"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="M8" s="10" t="n"/>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
+      <c r="P8" s="10" t="n"/>
+      <c r="Q8" s="10" t="n"/>
+      <c r="R8" s="10" t="n"/>
+      <c r="S8" s="10" t="n"/>
+      <c r="T8" s="10" t="n"/>
+      <c r="U8" s="10" t="n"/>
+      <c r="V8" s="10" t="n"/>
+      <c r="W8" s="10" t="n"/>
+      <c r="X8" s="10" t="n"/>
+      <c r="Y8" s="10" t="n"/>
+      <c r="Z8" s="10" t="n"/>
+      <c r="AA8" s="10" t="n"/>
+      <c r="AB8" s="10" t="n"/>
+      <c r="AC8" s="10" t="n"/>
+      <c r="AD8" s="10" t="n"/>
+      <c r="AE8" s="10" t="n"/>
+      <c r="AF8" s="10" t="n"/>
+      <c r="AG8" s="10" t="n"/>
+      <c r="AH8" s="10" t="n"/>
+      <c r="AI8" s="10" t="n"/>
+      <c r="AJ8" s="10" t="n"/>
+      <c r="AK8" s="10" t="n"/>
+      <c r="AL8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" s="11" t="inlineStr">
         <is>
           <t>LABR: Compensation of employees</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr"/>
+      <c r="B9" s="10" t="n"/>
       <c r="C9" s="12" t="n">
         <v>55762.914</v>
       </c>
@@ -1687,13 +1928,13 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" ht="21" customHeight="1">
+    <row r="10" ht="24" customHeight="1">
       <c r="A10" s="11" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr"/>
+      <c r="B10" s="10" t="n"/>
       <c r="C10" s="13" t="n">
         <v>11926.959</v>
       </c>
@@ -1803,13 +2044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1">
+    <row r="11" ht="24" customHeight="1">
       <c r="A11" s="11" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
+      <c r="B11" s="10" t="n"/>
       <c r="C11" s="12" t="n">
         <v>126190.226</v>
       </c>
@@ -1960,1344 +2201,1344 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="27.42578125" customWidth="1" min="1" max="1"/>
-    <col width="2.42578125" customWidth="1" min="2" max="2"/>
-    <col width="14.140625" customWidth="1" min="3" max="14"/>
+    <col width="27.5" customWidth="1" min="1" max="1"/>
+    <col width="2.5" customWidth="1" min="2" max="2"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
-      <c r="A1" s="27">
+      <c r="A1" s="17">
         <f>DotStatQuery(B1)</f>
         <v/>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="28" t="inlineStr">
+    <row r="2" ht="27" customHeight="1">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="52" t="n"/>
-      <c r="C3" s="58" t="inlineStr">
+      <c r="B3" s="31" t="n"/>
+      <c r="C3" s="38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="54" t="n"/>
-      <c r="E3" s="54" t="n"/>
-      <c r="F3" s="54" t="n"/>
-      <c r="G3" s="54" t="n"/>
-      <c r="H3" s="54" t="n"/>
-      <c r="I3" s="54" t="n"/>
-      <c r="J3" s="54" t="n"/>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="54" t="n"/>
-      <c r="M3" s="54" t="n"/>
-      <c r="N3" s="52" t="n"/>
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="n"/>
+      <c r="H3" s="33" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="33" t="n"/>
+      <c r="K3" s="33" t="n"/>
+      <c r="L3" s="33" t="n"/>
+      <c r="M3" s="33" t="n"/>
+      <c r="N3" s="31" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="59" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="52" t="n"/>
-      <c r="C4" s="60" t="inlineStr">
+      <c r="B4" s="31" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="52" t="n"/>
-      <c r="E4" s="60" t="inlineStr">
+      <c r="D4" s="31" t="n"/>
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="52" t="n"/>
-      <c r="G4" s="60" t="inlineStr">
+      <c r="F4" s="31" t="n"/>
+      <c r="G4" s="39" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="52" t="n"/>
-      <c r="I4" s="60" t="inlineStr">
+      <c r="H4" s="31" t="n"/>
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="52" t="n"/>
-      <c r="K4" s="60" t="inlineStr">
+      <c r="J4" s="31" t="n"/>
+      <c r="K4" s="39" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="52" t="n"/>
-      <c r="M4" s="60" t="inlineStr">
+      <c r="L4" s="31" t="n"/>
+      <c r="M4" s="39" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="52" t="n"/>
-    </row>
-    <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="59" t="inlineStr">
+      <c r="N4" s="31" t="n"/>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="52" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="31" t="n"/>
+      <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="F5" s="38" t="inlineStr">
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="H5" s="38" t="inlineStr">
+      <c r="H5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
-      <c r="I5" s="38" t="inlineStr">
+      <c r="I5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="J5" s="38" t="inlineStr">
+      <c r="J5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
-      <c r="K5" s="38" t="inlineStr">
+      <c r="K5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="L5" s="38" t="inlineStr">
+      <c r="L5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
-      <c r="M5" s="38" t="inlineStr">
+      <c r="M5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
         </is>
       </c>
-      <c r="N5" s="38" t="inlineStr">
+      <c r="N5" s="19" t="inlineStr">
         <is>
           <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="39" t="inlineStr">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B6" s="40" t="inlineStr"/>
-      <c r="C6" s="40" t="inlineStr"/>
-      <c r="D6" s="40" t="inlineStr"/>
-      <c r="E6" s="40" t="inlineStr"/>
-      <c r="F6" s="40" t="inlineStr"/>
-      <c r="G6" s="40" t="inlineStr"/>
-      <c r="H6" s="40" t="inlineStr"/>
-      <c r="I6" s="40" t="inlineStr"/>
-      <c r="J6" s="40" t="inlineStr"/>
-      <c r="K6" s="40" t="inlineStr"/>
-      <c r="L6" s="40" t="inlineStr"/>
-      <c r="M6" s="40" t="inlineStr"/>
-      <c r="N6" s="40" t="inlineStr"/>
+      <c r="B6" s="21" t="n"/>
+      <c r="C6" s="21" t="n"/>
+      <c r="D6" s="21" t="n"/>
+      <c r="E6" s="21" t="n"/>
+      <c r="F6" s="21" t="n"/>
+      <c r="G6" s="21" t="n"/>
+      <c r="H6" s="21" t="n"/>
+      <c r="I6" s="21" t="n"/>
+      <c r="J6" s="21" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="21" t="n"/>
+      <c r="M6" s="21" t="n"/>
+      <c r="N6" s="21" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr"/>
-      <c r="C7" s="42" t="n">
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="23" t="n">
         <v>17390</v>
       </c>
-      <c r="D7" s="42" t="n">
+      <c r="D7" s="23" t="n">
         <v>10427</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="23" t="n">
         <v>6061</v>
       </c>
-      <c r="F7" s="42" t="n">
+      <c r="F7" s="23" t="n">
         <v>3451</v>
       </c>
-      <c r="G7" s="42" t="n">
+      <c r="G7" s="23" t="n">
         <v>2949</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="23" t="n">
         <v>1466</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="23" t="n">
         <v>2957</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="23" t="n">
         <v>1941</v>
       </c>
-      <c r="K7" s="42" t="n">
+      <c r="K7" s="23" t="n">
         <v>151</v>
       </c>
-      <c r="L7" s="42" t="n">
+      <c r="L7" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="M7" s="42" t="n">
+      <c r="M7" s="23" t="n">
         <v>31.715</v>
       </c>
-      <c r="N7" s="42" t="n">
+      <c r="N7" s="23" t="n">
         <v>16.427</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="22" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="B8" s="40" t="inlineStr"/>
-      <c r="C8" s="43" t="n">
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="24" t="n">
         <v>13142.207</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="24" t="n">
         <v>4268.858</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="24" t="n">
         <v>2750.683</v>
       </c>
-      <c r="F8" s="43" t="n">
+      <c r="F8" s="24" t="n">
         <v>2190.244</v>
       </c>
-      <c r="G8" s="43" t="n">
+      <c r="G8" s="24" t="n">
         <v>1169.679</v>
       </c>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="24" t="n">
         <v>999.325</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="24" t="n">
         <v>1540.592</v>
       </c>
-      <c r="J8" s="43" t="n">
+      <c r="J8" s="24" t="n">
         <v>1143.929</v>
       </c>
-      <c r="K8" s="43" t="n">
+      <c r="K8" s="24" t="n">
         <v>40.412</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="24" t="n">
         <v>46.99</v>
       </c>
-      <c r="M8" s="43" t="n">
+      <c r="M8" s="24" t="n">
         <v>17.47</v>
       </c>
-      <c r="N8" s="43" t="n">
+      <c r="N8" s="24" t="n">
         <v>15.18</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="inlineStr">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr"/>
-      <c r="C9" s="42" t="n">
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="23" t="n">
         <v>32184.7</v>
       </c>
-      <c r="D9" s="42" t="n">
+      <c r="D9" s="23" t="n">
         <v>15967.8</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="23" t="n">
         <v>9208.1</v>
       </c>
-      <c r="F9" s="42" t="n">
+      <c r="F9" s="23" t="n">
         <v>5799.6</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="G9" s="23" t="n">
         <v>4169.7</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="23" t="n">
         <v>2219.7</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="23" t="n">
         <v>5127.8</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="23" t="n">
         <v>3664</v>
       </c>
-      <c r="K9" s="42" t="n">
+      <c r="K9" s="23" t="n">
         <v>-89.40000000000001</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="23" t="n">
         <v>-84.09999999999999</v>
       </c>
-      <c r="M9" s="42" t="n">
+      <c r="M9" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="N9" s="42" t="n">
+      <c r="N9" s="23" t="n">
         <v>23.4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="inlineStr">
+      <c r="A10" s="22" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="B10" s="40" t="inlineStr"/>
-      <c r="C10" s="43" t="n">
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="24" t="n">
         <v>4296151.79</v>
       </c>
-      <c r="D10" s="43" t="n">
+      <c r="D10" s="24" t="n">
         <v>1176806.697</v>
       </c>
-      <c r="E10" s="43" t="n">
+      <c r="E10" s="24" t="n">
         <v>1262313.613</v>
       </c>
-      <c r="F10" s="43" t="n">
+      <c r="F10" s="24" t="n">
         <v>414529.823</v>
       </c>
-      <c r="G10" s="43" t="n">
+      <c r="G10" s="24" t="n">
         <v>410617.86</v>
       </c>
-      <c r="H10" s="43" t="n">
+      <c r="H10" s="24" t="n">
         <v>197186.617</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="24" t="n">
         <v>825702.421</v>
       </c>
-      <c r="J10" s="43" t="n">
+      <c r="J10" s="24" t="n">
         <v>207059.061</v>
       </c>
-      <c r="K10" s="43" t="n">
+      <c r="K10" s="24" t="n">
         <v>25993.349</v>
       </c>
-      <c r="L10" s="43" t="n">
+      <c r="L10" s="24" t="n">
         <v>10284.14</v>
       </c>
-      <c r="M10" s="43" t="inlineStr">
+      <c r="M10" s="24" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="N10" s="43" t="inlineStr">
+      <c r="N10" s="24" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr"/>
-      <c r="C11" s="42" t="n">
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="23" t="n">
         <v>155577</v>
       </c>
-      <c r="D11" s="42" t="n">
+      <c r="D11" s="23" t="n">
         <v>41847</v>
       </c>
-      <c r="E11" s="42" t="n">
+      <c r="E11" s="23" t="n">
         <v>40096</v>
       </c>
-      <c r="F11" s="42" t="n">
+      <c r="F11" s="23" t="n">
         <v>17707</v>
       </c>
-      <c r="G11" s="42" t="n">
+      <c r="G11" s="23" t="n">
         <v>14359</v>
       </c>
-      <c r="H11" s="42" t="n">
+      <c r="H11" s="23" t="n">
         <v>4980</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="23" t="n">
         <v>25779</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="23" t="n">
         <v>12717</v>
       </c>
-      <c r="K11" s="42" t="n">
+      <c r="K11" s="23" t="n">
         <v>-42</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="42" t="n">
+      <c r="M11" s="23" t="n">
         <v>30.922</v>
       </c>
-      <c r="N11" s="42" t="n">
+      <c r="N11" s="23" t="n">
         <v>11.698</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="22" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B12" s="40" t="inlineStr"/>
-      <c r="C12" s="43" t="n">
+      <c r="B12" s="21" t="n"/>
+      <c r="C12" s="24" t="n">
         <v>41360</v>
       </c>
-      <c r="D12" s="43" t="n">
+      <c r="D12" s="24" t="n">
         <v>92114</v>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="24" t="n">
         <v>18022</v>
       </c>
-      <c r="F12" s="43" t="n">
+      <c r="F12" s="24" t="n">
         <v>60233</v>
       </c>
-      <c r="G12" s="43" t="n">
+      <c r="G12" s="24" t="n">
         <v>6417</v>
       </c>
-      <c r="H12" s="43" t="n">
+      <c r="H12" s="24" t="n">
         <v>16429</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="24" t="n">
         <v>11520</v>
       </c>
-      <c r="J12" s="43" t="n">
+      <c r="J12" s="24" t="n">
         <v>43707</v>
       </c>
-      <c r="K12" s="43" t="n">
+      <c r="K12" s="24" t="n">
         <v>85</v>
       </c>
-      <c r="L12" s="43" t="n">
+      <c r="L12" s="24" t="n">
         <v>98</v>
       </c>
-      <c r="M12" s="43" t="n">
+      <c r="M12" s="24" t="n">
         <v>11.451</v>
       </c>
-      <c r="N12" s="43" t="n">
+      <c r="N12" s="24" t="n">
         <v>22.722</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="22" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr"/>
-      <c r="C13" s="42" t="n">
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="23" t="n">
         <v>429.8</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="23" t="n">
         <v>45.4</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="23" t="n">
         <v>106.1</v>
       </c>
-      <c r="F13" s="42" t="n">
+      <c r="F13" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="G13" s="42" t="n">
+      <c r="G13" s="23" t="n">
         <v>50.2</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="23" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="23" t="n">
         <v>1.8</v>
       </c>
-      <c r="K13" s="42" t="n">
+      <c r="K13" s="23" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="42" t="n">
+      <c r="M13" s="23" t="n">
         <v>3.1</v>
       </c>
-      <c r="N13" s="42" t="n">
+      <c r="N13" s="23" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="inlineStr">
+      <c r="A14" s="22" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="B14" s="40" t="inlineStr"/>
-      <c r="C14" s="43" t="n">
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="24" t="n">
         <v>7559</v>
       </c>
-      <c r="D14" s="43" t="n">
+      <c r="D14" s="24" t="n">
         <v>1835</v>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F14" s="43" t="n">
+      <c r="F14" s="24" t="n">
         <v>1315</v>
       </c>
-      <c r="G14" s="43" t="n">
+      <c r="G14" s="24" t="n">
         <v>775</v>
       </c>
-      <c r="H14" s="43" t="n">
+      <c r="H14" s="24" t="n">
         <v>264</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="24" t="n">
         <v>1266</v>
       </c>
-      <c r="J14" s="43" t="n">
+      <c r="J14" s="24" t="n">
         <v>1056</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="K14" s="24" t="n">
         <v>-19</v>
       </c>
-      <c r="L14" s="43" t="n">
+      <c r="L14" s="24" t="n">
         <v>-5</v>
       </c>
-      <c r="M14" s="43" t="n">
+      <c r="M14" s="24" t="n">
         <v>12.8</v>
       </c>
-      <c r="N14" s="43" t="n">
+      <c r="N14" s="24" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr"/>
-      <c r="C15" s="42" t="n">
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="23" t="n">
         <v>64869</v>
       </c>
-      <c r="D15" s="42" t="n">
+      <c r="D15" s="23" t="n">
         <v>26029</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="23" t="n">
         <v>19595</v>
       </c>
-      <c r="F15" s="42" t="n">
+      <c r="F15" s="23" t="n">
         <v>12412</v>
       </c>
-      <c r="G15" s="42" t="n">
+      <c r="G15" s="23" t="n">
         <v>8882</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="23" t="n">
         <v>4218</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="23" t="n">
         <v>9941</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="23" t="n">
         <v>7853</v>
       </c>
-      <c r="K15" s="42" t="n">
+      <c r="K15" s="23" t="n">
         <v>772</v>
       </c>
-      <c r="L15" s="42" t="n">
+      <c r="L15" s="23" t="n">
         <v>341</v>
       </c>
-      <c r="M15" s="42" t="n">
+      <c r="M15" s="23" t="n">
         <v>111</v>
       </c>
-      <c r="N15" s="42" t="n">
+      <c r="N15" s="23" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="inlineStr">
+      <c r="A16" s="22" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="B16" s="40" t="inlineStr"/>
-      <c r="C16" s="43" t="n">
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="24" t="n">
         <v>137727</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="24" t="n">
         <v>46535</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="24" t="n">
         <v>45580</v>
       </c>
-      <c r="F16" s="43" t="n">
+      <c r="F16" s="24" t="n">
         <v>22858</v>
       </c>
-      <c r="G16" s="43" t="n">
+      <c r="G16" s="24" t="n">
         <v>24028</v>
       </c>
-      <c r="H16" s="43" t="n">
+      <c r="H16" s="24" t="n">
         <v>8909</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="24" t="n">
         <v>21374</v>
       </c>
-      <c r="J16" s="43" t="n">
+      <c r="J16" s="24" t="n">
         <v>13883</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="K16" s="24" t="n">
         <v>178</v>
       </c>
-      <c r="L16" s="43" t="n">
+      <c r="L16" s="24" t="n">
         <v>66</v>
       </c>
-      <c r="M16" s="43" t="n">
+      <c r="M16" s="24" t="n">
         <v>348</v>
       </c>
-      <c r="N16" s="43" t="n">
+      <c r="N16" s="24" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr"/>
-      <c r="C17" s="42" t="n">
+      <c r="B17" s="21" t="n"/>
+      <c r="C17" s="23" t="n">
         <v>1561214</v>
       </c>
-      <c r="D17" s="42" t="n">
+      <c r="D17" s="23" t="n">
         <v>950652</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="23" t="n">
         <v>392029</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="F17" s="23" t="n">
         <v>450794</v>
       </c>
-      <c r="G17" s="42" t="n">
+      <c r="G17" s="23" t="n">
         <v>89594</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="23" t="n">
         <v>149504</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="23" t="n">
         <v>294084</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="23" t="n">
         <v>298569</v>
       </c>
-      <c r="K17" s="42" t="n">
+      <c r="K17" s="23" t="n">
         <v>8351</v>
       </c>
-      <c r="L17" s="42" t="n">
+      <c r="L17" s="23" t="n">
         <v>2721</v>
       </c>
-      <c r="M17" s="42" t="n">
+      <c r="M17" s="23" t="n">
         <v>16.291</v>
       </c>
-      <c r="N17" s="42" t="n">
+      <c r="N17" s="23" t="n">
         <v>20.789</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="41" t="inlineStr">
+      <c r="A18" s="22" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="B18" s="40" t="inlineStr"/>
-      <c r="C18" s="43" t="n">
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="24" t="n">
         <v>50506.5</v>
       </c>
-      <c r="D18" s="43" t="n">
+      <c r="D18" s="24" t="n">
         <v>25044.1</v>
       </c>
-      <c r="E18" s="43" t="n">
+      <c r="E18" s="24" t="n">
         <v>10896.2</v>
       </c>
-      <c r="F18" s="43" t="n">
+      <c r="F18" s="24" t="n">
         <v>8888.5</v>
       </c>
-      <c r="G18" s="43" t="n">
+      <c r="G18" s="24" t="n">
         <v>5723.3</v>
       </c>
-      <c r="H18" s="43" t="n">
+      <c r="H18" s="24" t="n">
         <v>4034.3</v>
       </c>
-      <c r="I18" s="43" t="n">
+      <c r="I18" s="24" t="n">
         <v>4864.1</v>
       </c>
-      <c r="J18" s="43" t="n">
+      <c r="J18" s="24" t="n">
         <v>4486.5</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="K18" s="24" t="n">
         <v>308.8</v>
       </c>
-      <c r="L18" s="43" t="n">
+      <c r="L18" s="24" t="n">
         <v>367.7</v>
       </c>
-      <c r="M18" s="43" t="n">
+      <c r="M18" s="24" t="n">
         <v>109.7</v>
       </c>
-      <c r="N18" s="43" t="n">
+      <c r="N18" s="24" t="n">
         <v>59.9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="inlineStr">
+      <c r="A19" s="22" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr"/>
-      <c r="C19" s="42" t="n">
+      <c r="B19" s="21" t="n"/>
+      <c r="C19" s="23" t="n">
         <v>22424500</v>
       </c>
-      <c r="D19" s="42" t="n">
+      <c r="D19" s="23" t="n">
         <v>9255400</v>
       </c>
-      <c r="E19" s="42" t="n">
+      <c r="E19" s="23" t="n">
         <v>8516400</v>
       </c>
-      <c r="F19" s="42" t="n">
+      <c r="F19" s="23" t="n">
         <v>3015900</v>
       </c>
-      <c r="G19" s="42" t="n">
+      <c r="G19" s="23" t="n">
         <v>2266700</v>
       </c>
-      <c r="H19" s="42" t="n">
+      <c r="H19" s="23" t="n">
         <v>802700</v>
       </c>
-      <c r="I19" s="42" t="inlineStr">
+      <c r="I19" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="J19" s="42" t="inlineStr">
+      <c r="J19" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="K19" s="42" t="inlineStr">
+      <c r="K19" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="L19" s="42" t="inlineStr">
+      <c r="L19" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="M19" s="42" t="n">
+      <c r="M19" s="23" t="n">
         <v>328</v>
       </c>
-      <c r="N19" s="42" t="n">
+      <c r="N19" s="23" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="inlineStr">
+      <c r="A20" s="22" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="B20" s="40" t="inlineStr"/>
-      <c r="C20" s="43" t="n">
+      <c r="B20" s="21" t="n"/>
+      <c r="C20" s="24" t="n">
         <v>144820316</v>
       </c>
-      <c r="D20" s="43" t="n">
+      <c r="D20" s="24" t="n">
         <v>17629352</v>
       </c>
-      <c r="E20" s="43" t="n">
+      <c r="E20" s="24" t="n">
         <v>38090317</v>
       </c>
-      <c r="F20" s="43" t="n">
+      <c r="F20" s="24" t="n">
         <v>6699394</v>
       </c>
-      <c r="G20" s="43" t="n">
+      <c r="G20" s="24" t="n">
         <v>9391789</v>
       </c>
-      <c r="H20" s="43" t="n">
+      <c r="H20" s="24" t="n">
         <v>1980796</v>
       </c>
-      <c r="I20" s="43" t="n">
+      <c r="I20" s="24" t="n">
         <v>28334763</v>
       </c>
-      <c r="J20" s="43" t="n">
+      <c r="J20" s="24" t="n">
         <v>4673860</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="K20" s="24" t="n">
         <v>363765</v>
       </c>
-      <c r="L20" s="43" t="n">
+      <c r="L20" s="24" t="n">
         <v>44738</v>
       </c>
-      <c r="M20" s="43" t="n">
+      <c r="M20" s="24" t="n">
         <v>175.2</v>
       </c>
-      <c r="N20" s="43" t="n">
+      <c r="N20" s="24" t="n">
         <v>44.2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="inlineStr">
+      <c r="A21" s="22" t="inlineStr">
         <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr"/>
-      <c r="C21" s="42" t="n">
+      <c r="B21" s="21" t="n"/>
+      <c r="C21" s="23" t="n">
         <v>245.93</v>
       </c>
-      <c r="D21" s="42" t="n">
+      <c r="D21" s="23" t="n">
         <v>156.45</v>
       </c>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="23" t="n">
         <v>61.083</v>
       </c>
-      <c r="F21" s="42" t="n">
+      <c r="F21" s="23" t="n">
         <v>78.70399999999999</v>
       </c>
-      <c r="G21" s="42" t="n">
+      <c r="G21" s="23" t="n">
         <v>33.743</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="H21" s="23" t="n">
         <v>41.521</v>
       </c>
-      <c r="I21" s="42" t="n">
+      <c r="I21" s="23" t="n">
         <v>26.464</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="23" t="n">
         <v>36.499</v>
       </c>
-      <c r="K21" s="42" t="n">
+      <c r="K21" s="23" t="n">
         <v>0.876</v>
       </c>
-      <c r="L21" s="42" t="n">
+      <c r="L21" s="23" t="n">
         <v>0.6840000000000001</v>
       </c>
-      <c r="M21" s="42" t="n">
+      <c r="M21" s="23" t="n">
         <v>2.873</v>
       </c>
-      <c r="N21" s="42" t="n">
+      <c r="N21" s="23" t="n">
         <v>2.351</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="44" t="inlineStr">
+      <c r="A22" s="25" t="inlineStr">
         <is>
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B22" s="40" t="inlineStr"/>
-      <c r="C22" s="43" t="n">
+      <c r="B22" s="21" t="n"/>
+      <c r="C22" s="24" t="n">
         <v>2026.5</v>
       </c>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="24" t="n">
         <v>215.7</v>
       </c>
-      <c r="E22" s="43" t="n">
+      <c r="E22" s="24" t="n">
         <v>532.5</v>
       </c>
-      <c r="F22" s="43" t="n">
+      <c r="F22" s="24" t="n">
         <v>169.2</v>
       </c>
-      <c r="G22" s="43" t="n">
+      <c r="G22" s="24" t="n">
         <v>126.7</v>
       </c>
-      <c r="H22" s="43" t="n">
+      <c r="H22" s="24" t="n">
         <v>17.5</v>
       </c>
-      <c r="I22" s="43" t="n">
+      <c r="I22" s="24" t="n">
         <v>407.4</v>
       </c>
-      <c r="J22" s="43" t="n">
+      <c r="J22" s="24" t="n">
         <v>151.7</v>
       </c>
-      <c r="K22" s="43" t="n">
+      <c r="K22" s="24" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L22" s="43" t="n">
+      <c r="L22" s="24" t="n">
         <v>0.1</v>
       </c>
-      <c r="M22" s="43" t="n">
+      <c r="M22" s="24" t="n">
         <v>6.6</v>
       </c>
-      <c r="N22" s="43" t="n">
+      <c r="N22" s="24" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="inlineStr">
+      <c r="A23" s="22" t="inlineStr">
         <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr"/>
-      <c r="C23" s="42" t="n">
+      <c r="B23" s="21" t="n"/>
+      <c r="C23" s="23" t="n">
         <v>720647.2610000001</v>
       </c>
-      <c r="D23" s="42" t="n">
+      <c r="D23" s="23" t="n">
         <v>275739.487</v>
       </c>
-      <c r="E23" s="42" t="n">
+      <c r="E23" s="23" t="n">
         <v>210925.784</v>
       </c>
-      <c r="F23" s="42" t="n">
+      <c r="F23" s="23" t="n">
         <v>65884.478</v>
       </c>
-      <c r="G23" s="42" t="n">
+      <c r="G23" s="23" t="n">
         <v>38561.97</v>
       </c>
-      <c r="H23" s="42" t="n">
+      <c r="H23" s="23" t="n">
         <v>25493.958</v>
       </c>
-      <c r="I23" s="42" t="n">
+      <c r="I23" s="23" t="n">
         <v>170135.56</v>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="J23" s="23" t="n">
         <v>39511.929</v>
       </c>
-      <c r="K23" s="42" t="n">
+      <c r="K23" s="23" t="n">
         <v>2228.254</v>
       </c>
-      <c r="L23" s="42" t="n">
+      <c r="L23" s="23" t="n">
         <v>878.591</v>
       </c>
-      <c r="M23" s="42" t="n">
+      <c r="M23" s="23" t="n">
         <v>155.355</v>
       </c>
-      <c r="N23" s="42" t="n">
+      <c r="N23" s="23" t="n">
         <v>118.422</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="inlineStr">
+      <c r="A24" s="22" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B24" s="40" t="inlineStr"/>
-      <c r="C24" s="43" t="n">
+      <c r="B24" s="21" t="n"/>
+      <c r="C24" s="24" t="n">
         <v>41782</v>
       </c>
-      <c r="D24" s="43" t="n">
+      <c r="D24" s="24" t="n">
         <v>5784</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="24" t="n">
         <v>9497</v>
       </c>
-      <c r="F24" s="43" t="n">
+      <c r="F24" s="24" t="n">
         <v>2423</v>
       </c>
-      <c r="G24" s="43" t="n">
+      <c r="G24" s="24" t="n">
         <v>3475</v>
       </c>
-      <c r="H24" s="43" t="n">
+      <c r="H24" s="24" t="n">
         <v>902</v>
       </c>
-      <c r="I24" s="43" t="n">
+      <c r="I24" s="24" t="n">
         <v>6007</v>
       </c>
-      <c r="J24" s="43" t="n">
+      <c r="J24" s="24" t="n">
         <v>1552</v>
       </c>
-      <c r="K24" s="43" t="n">
+      <c r="K24" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="L24" s="43" t="n">
+      <c r="L24" s="24" t="n">
         <v>-31</v>
       </c>
-      <c r="M24" s="43" t="n">
+      <c r="M24" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="N24" s="43" t="n">
+      <c r="N24" s="24" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41" t="inlineStr">
+      <c r="A25" s="22" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr"/>
-      <c r="C25" s="42" t="n">
+      <c r="B25" s="21" t="n"/>
+      <c r="C25" s="23" t="n">
         <v>56741</v>
       </c>
-      <c r="D25" s="42" t="n">
+      <c r="D25" s="23" t="n">
         <v>12448</v>
       </c>
-      <c r="E25" s="42" t="n">
+      <c r="E25" s="23" t="n">
         <v>15300</v>
       </c>
-      <c r="F25" s="42" t="n">
+      <c r="F25" s="23" t="n">
         <v>6492</v>
       </c>
-      <c r="G25" s="42" t="n">
+      <c r="G25" s="23" t="n">
         <v>7609</v>
       </c>
-      <c r="H25" s="42" t="n">
+      <c r="H25" s="23" t="n">
         <v>2019</v>
       </c>
-      <c r="I25" s="42" t="n">
+      <c r="I25" s="23" t="n">
         <v>7709</v>
       </c>
-      <c r="J25" s="42" t="n">
+      <c r="J25" s="23" t="n">
         <v>4473</v>
       </c>
-      <c r="K25" s="42" t="n">
+      <c r="K25" s="23" t="n">
         <v>-18</v>
       </c>
-      <c r="L25" s="42" t="n">
+      <c r="L25" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="42" t="n">
+      <c r="M25" s="23" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="N25" s="42" t="n">
+      <c r="N25" s="23" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="inlineStr">
+      <c r="A26" s="22" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B26" s="40" t="inlineStr"/>
-      <c r="C26" s="43" t="n">
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="24" t="n">
         <v>4356.484</v>
       </c>
-      <c r="D26" s="43" t="n">
+      <c r="D26" s="24" t="n">
         <v>1175.929</v>
       </c>
-      <c r="E26" s="43" t="n">
+      <c r="E26" s="24" t="n">
         <v>878.677</v>
       </c>
-      <c r="F26" s="43" t="n">
+      <c r="F26" s="24" t="n">
         <v>505.164</v>
       </c>
-      <c r="G26" s="43" t="n">
+      <c r="G26" s="24" t="n">
         <v>356.761</v>
       </c>
-      <c r="H26" s="43" t="n">
+      <c r="H26" s="24" t="n">
         <v>204.215</v>
       </c>
-      <c r="I26" s="43" t="n">
+      <c r="I26" s="24" t="n">
         <v>503.592</v>
       </c>
-      <c r="J26" s="43" t="n">
+      <c r="J26" s="24" t="n">
         <v>225.114</v>
       </c>
-      <c r="K26" s="43" t="n">
+      <c r="K26" s="24" t="n">
         <v>18.324</v>
       </c>
-      <c r="L26" s="43" t="n">
+      <c r="L26" s="24" t="n">
         <v>75.83499999999999</v>
       </c>
-      <c r="M26" s="43" t="n">
+      <c r="M26" s="24" t="n">
         <v>12.057</v>
       </c>
-      <c r="N26" s="43" t="n">
+      <c r="N26" s="24" t="n">
         <v>6.227</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41" t="inlineStr">
+      <c r="A27" s="22" t="inlineStr">
         <is>
           <t>Slovak Republic</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr"/>
-      <c r="C27" s="42" t="n">
+      <c r="B27" s="21" t="n"/>
+      <c r="C27" s="23" t="n">
         <v>1907.855</v>
       </c>
-      <c r="D27" s="42" t="n">
+      <c r="D27" s="23" t="n">
         <v>209.029</v>
       </c>
-      <c r="E27" s="42" t="n">
+      <c r="E27" s="23" t="n">
         <v>646.14</v>
       </c>
-      <c r="F27" s="42" t="n">
+      <c r="F27" s="23" t="n">
         <v>55.09</v>
       </c>
-      <c r="G27" s="42" t="n">
+      <c r="G27" s="23" t="n">
         <v>156.3</v>
       </c>
-      <c r="H27" s="42" t="n">
+      <c r="H27" s="23" t="n">
         <v>45.83</v>
       </c>
-      <c r="I27" s="42" t="n">
+      <c r="I27" s="23" t="n">
         <v>492.097</v>
       </c>
-      <c r="J27" s="42" t="n">
+      <c r="J27" s="23" t="n">
         <v>9.335000000000001</v>
       </c>
-      <c r="K27" s="42" t="n">
+      <c r="K27" s="23" t="n">
         <v>-2.265</v>
       </c>
-      <c r="L27" s="42" t="n">
+      <c r="L27" s="23" t="n">
         <v>-0.073</v>
       </c>
-      <c r="M27" s="42" t="n">
+      <c r="M27" s="23" t="n">
         <v>8.592000000000001</v>
       </c>
-      <c r="N27" s="42" t="n">
+      <c r="N27" s="23" t="n">
         <v>2.228</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="41" t="inlineStr">
+      <c r="A28" s="22" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="B28" s="40" t="inlineStr"/>
-      <c r="C28" s="43" t="n">
+      <c r="B28" s="21" t="n"/>
+      <c r="C28" s="24" t="n">
         <v>36741</v>
       </c>
-      <c r="D28" s="43" t="n">
+      <c r="D28" s="24" t="n">
         <v>15161</v>
       </c>
-      <c r="E28" s="43" t="n">
+      <c r="E28" s="24" t="n">
         <v>8061</v>
       </c>
-      <c r="F28" s="43" t="n">
+      <c r="F28" s="24" t="n">
         <v>6833</v>
       </c>
-      <c r="G28" s="43" t="n">
+      <c r="G28" s="24" t="n">
         <v>3954</v>
       </c>
-      <c r="H28" s="43" t="n">
+      <c r="H28" s="24" t="n">
         <v>2115</v>
       </c>
-      <c r="I28" s="43" t="n">
+      <c r="I28" s="24" t="n">
         <v>4057</v>
       </c>
-      <c r="J28" s="43" t="n">
+      <c r="J28" s="24" t="n">
         <v>4711</v>
       </c>
-      <c r="K28" s="43" t="n">
+      <c r="K28" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="L28" s="43" t="n">
+      <c r="L28" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="M28" s="43" t="n">
+      <c r="M28" s="24" t="n">
         <v>83.8</v>
       </c>
-      <c r="N28" s="43" t="n">
+      <c r="N28" s="24" t="n">
         <v>39.9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41" t="inlineStr">
+      <c r="A29" s="22" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr"/>
-      <c r="C29" s="42" t="n">
+      <c r="B29" s="21" t="n"/>
+      <c r="C29" s="23" t="n">
         <v>23031.4167</v>
       </c>
-      <c r="D29" s="42" t="n">
+      <c r="D29" s="23" t="n">
         <v>80032.2044</v>
       </c>
-      <c r="E29" s="42" t="n">
+      <c r="E29" s="23" t="n">
         <v>7470.1342</v>
       </c>
-      <c r="F29" s="42" t="n">
+      <c r="F29" s="23" t="n">
         <v>28686.7759</v>
       </c>
-      <c r="G29" s="42" t="inlineStr">
+      <c r="G29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="H29" s="42" t="inlineStr">
+      <c r="H29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="I29" s="42" t="inlineStr">
+      <c r="I29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="J29" s="42" t="inlineStr">
+      <c r="J29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="K29" s="42" t="inlineStr">
+      <c r="K29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="L29" s="42" t="inlineStr">
+      <c r="L29" s="23" t="inlineStr">
         <is>
           <t>..</t>
         </is>
       </c>
-      <c r="M29" s="42" t="n">
+      <c r="M29" s="23" t="n">
         <v>29.101</v>
       </c>
-      <c r="N29" s="42" t="n">
+      <c r="N29" s="23" t="n">
         <v>46.713</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="41" t="inlineStr">
+      <c r="A30" s="22" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B30" s="40" t="inlineStr"/>
-      <c r="C30" s="43" t="n">
+      <c r="B30" s="21" t="n"/>
+      <c r="C30" s="24" t="n">
         <v>32794</v>
       </c>
-      <c r="D30" s="43" t="n">
+      <c r="D30" s="24" t="n">
         <v>21282</v>
       </c>
-      <c r="E30" s="43" t="n">
+      <c r="E30" s="24" t="n">
         <v>12217</v>
       </c>
-      <c r="F30" s="43" t="n">
+      <c r="F30" s="24" t="n">
         <v>11848</v>
       </c>
-      <c r="G30" s="43" t="n">
+      <c r="G30" s="24" t="n">
         <v>6748</v>
       </c>
-      <c r="H30" s="43" t="n">
+      <c r="H30" s="24" t="n">
         <v>4114</v>
       </c>
-      <c r="I30" s="43" t="n">
+      <c r="I30" s="24" t="n">
         <v>5410</v>
       </c>
-      <c r="J30" s="43" t="n">
+      <c r="J30" s="24" t="n">
         <v>7721</v>
       </c>
-      <c r="K30" s="43" t="n">
+      <c r="K30" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="L30" s="43" t="n">
+      <c r="L30" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="M30" s="43" t="n">
+      <c r="M30" s="24" t="n">
         <v>96.19</v>
       </c>
-      <c r="N30" s="43" t="n">
+      <c r="N30" s="24" t="n">
         <v>40.64</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="inlineStr">
+      <c r="A31" s="22" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr"/>
-      <c r="C31" s="42" t="n">
+      <c r="B31" s="21" t="n"/>
+      <c r="C31" s="23" t="n">
         <v>515221</v>
       </c>
-      <c r="D31" s="42" t="n">
+      <c r="D31" s="23" t="n">
         <v>266206</v>
       </c>
-      <c r="E31" s="42" t="n">
+      <c r="E31" s="23" t="n">
         <v>184192</v>
       </c>
-      <c r="F31" s="42" t="n">
+      <c r="F31" s="23" t="n">
         <v>143569</v>
       </c>
-      <c r="G31" s="42" t="n">
+      <c r="G31" s="23" t="n">
         <v>54606</v>
       </c>
-      <c r="H31" s="42" t="n">
+      <c r="H31" s="23" t="n">
         <v>45877</v>
       </c>
-      <c r="I31" s="42" t="n">
+      <c r="I31" s="23" t="n">
         <v>120465</v>
       </c>
-      <c r="J31" s="42" t="n">
+      <c r="J31" s="23" t="n">
         <v>94460</v>
       </c>
-      <c r="K31" s="42" t="n">
+      <c r="K31" s="23" t="n">
         <v>9121</v>
       </c>
-      <c r="L31" s="42" t="n">
+      <c r="L31" s="23" t="n">
         <v>3232</v>
       </c>
-      <c r="M31" s="42" t="n">
+      <c r="M31" s="23" t="n">
         <v>534</v>
       </c>
-      <c r="N31" s="42" t="n">
+      <c r="N31" s="23" t="n">
         <v>286</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="inlineStr">
+      <c r="A32" s="26" t="inlineStr">
         <is>
           <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="46" t="inlineStr">
+      <c r="A33" s="27" t="inlineStr">
         <is>
           <t>Legend:</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="inlineStr">
+      <c r="A34" s="28" t="inlineStr">
         <is>
           <t>c:</t>
         </is>
       </c>
-      <c r="B34" s="46" t="inlineStr">
+      <c r="B34" s="27" t="inlineStr">
         <is>
           <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="inlineStr">
+      <c r="A35" s="28" t="inlineStr">
         <is>
           <t>b:</t>
         </is>
       </c>
-      <c r="B35" s="46" t="inlineStr">
+      <c r="B35" s="27" t="inlineStr">
         <is>
           <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
         </is>
@@ -3362,16 +3603,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10.140625" customWidth="1" min="2" max="38"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3385,303 +3626,343 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 05T06</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="C1" s="40" t="inlineStr">
+        <is>
+          <t>ISIC 05</t>
+        </is>
+      </c>
+      <c r="D1" s="41" t="inlineStr">
+        <is>
+          <t>ISIC 06</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>ISIC 09</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>ISIC 10T12</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>ISIC 13T15</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>ISIC 16</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ISIC 17T18</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="K1" s="48" t="inlineStr">
+      <c r="L1" s="40" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="L1" s="48" t="inlineStr">
+      <c r="M1" s="41" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 23</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 24</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="O1" s="40" t="inlineStr">
+        <is>
+          <t>ISIC 231</t>
+        </is>
+      </c>
+      <c r="P1" s="41" t="inlineStr">
+        <is>
+          <t>ISIC 239</t>
+        </is>
+      </c>
+      <c r="Q1" s="40" t="inlineStr">
+        <is>
+          <t>ISIC 241</t>
+        </is>
+      </c>
+      <c r="R1" s="41" t="inlineStr">
+        <is>
+          <t>ISIC 242</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 35T39</t>
-        </is>
-      </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="Z1" s="40" t="inlineStr">
+        <is>
+          <t>ISIC 351</t>
+        </is>
+      </c>
+      <c r="AA1" s="44" t="inlineStr">
+        <is>
+          <t>ISIC 352T353</t>
+        </is>
+      </c>
+      <c r="AB1" s="41" t="inlineStr">
+        <is>
+          <t>ISIC 36T39</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="AD1" s="4" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="AE1" s="4" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AF1" s="4" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
+      <c r="AG1" s="4" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AH1" s="4" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AI1" s="4" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AJ1" s="4" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AK1" s="4" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AL1" s="4" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AM1" s="4" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AN1" s="4" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AO1" s="4" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AP1" s="4" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AQ1" s="4" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="16" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Employee Compensation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131344000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>575870000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>369166000</v>
+        <v>104372433000</v>
+      </c>
+      <c r="C2" s="42" t="n">
+        <v>1210236000</v>
+      </c>
+      <c r="D2" s="43" t="n">
+        <v>27927271.19831815</v>
       </c>
       <c r="E2" t="n">
-        <v>1409375000</v>
+        <v>102308728.8016818</v>
       </c>
       <c r="F2" t="n">
-        <v>330422000</v>
+        <v>2744982000</v>
       </c>
       <c r="G2" t="n">
-        <v>10088000</v>
+        <v>1074938000</v>
       </c>
       <c r="H2" t="n">
-        <v>43596000</v>
+        <v>84441000</v>
       </c>
       <c r="I2" t="n">
-        <v>69451000</v>
+        <v>471541000</v>
       </c>
       <c r="J2" t="n">
-        <v>118685000</v>
-      </c>
-      <c r="K2" s="49" t="n">
-        <v>70568031.4825415</v>
-      </c>
-      <c r="L2" s="49" t="n">
-        <v>51372968.5174585</v>
-      </c>
-      <c r="M2" t="n">
-        <v>58553000</v>
+        <v>832736000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2381273000</v>
+      </c>
+      <c r="L2" s="42" t="n">
+        <v>4014453243.099613</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <v>80123756.90038726</v>
       </c>
       <c r="N2" t="n">
-        <v>112433000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24283000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143330000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>491016000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>40162000</v>
+        <v>281162000</v>
+      </c>
+      <c r="O2" s="42" t="n">
+        <v>103088199.0950226</v>
+      </c>
+      <c r="P2" s="43" t="n">
+        <v>292947800.9049774</v>
+      </c>
+      <c r="Q2" s="42" t="n">
+        <v>202029364.1322878</v>
+      </c>
+      <c r="R2" s="43" t="n">
+        <v>196995635.8677122</v>
       </c>
       <c r="S2" t="n">
-        <v>96428000</v>
+        <v>1360424000</v>
       </c>
       <c r="T2" t="n">
+        <v>249244000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>118419000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1138044000</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
-        <v>99953000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>500950000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2862120000</v>
-      </c>
       <c r="Y2" t="n">
-        <v>4727832000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1445966000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2125263000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>370389000</v>
+        <v>289480000</v>
+      </c>
+      <c r="Z2" s="42" t="n">
+        <v>940521891.8343825</v>
+      </c>
+      <c r="AA2" s="45" t="n">
+        <v>74362547.74359429</v>
+      </c>
+      <c r="AB2" s="43" t="n">
+        <v>143589560.4220232</v>
       </c>
       <c r="AC2" t="n">
-        <v>383692000</v>
+        <v>11217671000</v>
       </c>
       <c r="AD2" t="n">
-        <v>42792000</v>
+        <v>13795789000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1880567000</v>
+        <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>506937000</v>
+        <v>5404281000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1293077000</v>
+        <v>588703000</v>
       </c>
       <c r="AH2" t="n">
-        <v>14398860000</v>
+        <v>894241000</v>
       </c>
       <c r="AI2" t="n">
-        <v>428925000</v>
+        <v>243681000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6262405000</v>
+        <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>318637000</v>
+        <v>1894515000</v>
       </c>
       <c r="AL2" t="n">
-        <v>116370000</v>
+        <v>19244893000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>25241781000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2204024000</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15540447000</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1454556000</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>306550000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3839,67 +3839,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104372433000</v>
+        <v>38374780000</v>
       </c>
       <c r="C2" s="42" t="n">
-        <v>1210236000</v>
+        <v>641841000</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>27927271.19831815</v>
+        <v>128024867.3571667</v>
       </c>
       <c r="E2" t="n">
-        <v>102308728.8016818</v>
+        <v>274051132.6428333</v>
       </c>
       <c r="F2" t="n">
-        <v>2744982000</v>
+        <v>1558804000</v>
       </c>
       <c r="G2" t="n">
-        <v>1074938000</v>
+        <v>356212000</v>
       </c>
       <c r="H2" t="n">
-        <v>84441000</v>
+        <v>10254000</v>
       </c>
       <c r="I2" t="n">
-        <v>471541000</v>
+        <v>48966000</v>
       </c>
       <c r="J2" t="n">
-        <v>832736000</v>
+        <v>72686000</v>
       </c>
       <c r="K2" t="n">
-        <v>2381273000</v>
+        <v>166678000</v>
       </c>
       <c r="L2" s="42" t="n">
-        <v>4014453243.099613</v>
+        <v>74744555.23755008</v>
       </c>
       <c r="M2" s="43" t="n">
-        <v>80123756.90038726</v>
+        <v>54413444.76244991</v>
       </c>
       <c r="N2" t="n">
-        <v>281162000</v>
+        <v>60792000</v>
       </c>
       <c r="O2" s="42" t="n">
-        <v>103088199.0950226</v>
+        <v>4910956.349206349</v>
       </c>
       <c r="P2" s="43" t="n">
-        <v>292947800.9049774</v>
+        <v>102703043.6507937</v>
       </c>
       <c r="Q2" s="42" t="n">
-        <v>202029364.1322878</v>
+        <v>3132850.393700787</v>
       </c>
       <c r="R2" s="43" t="n">
-        <v>196995635.8677122</v>
+        <v>21734149.60629921</v>
       </c>
       <c r="S2" t="n">
-        <v>1360424000</v>
+        <v>154880000</v>
       </c>
       <c r="T2" t="n">
-        <v>249244000</v>
+        <v>577653000</v>
       </c>
       <c r="U2" t="n">
-        <v>118419000</v>
+        <v>41865000</v>
       </c>
       <c r="V2" t="n">
-        <v>1138044000</v>
+        <v>94408000</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -3908,61 +3908,61 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>289480000</v>
+        <v>96488000</v>
       </c>
       <c r="Z2" s="42" t="n">
-        <v>940521891.8343825</v>
+        <v>370462875.699888</v>
       </c>
       <c r="AA2" s="45" t="n">
-        <v>74362547.74359429</v>
+        <v>86483959.68645017</v>
       </c>
       <c r="AB2" s="43" t="n">
-        <v>143589560.4220232</v>
+        <v>62073164.61366182</v>
       </c>
       <c r="AC2" t="n">
-        <v>11217671000</v>
+        <v>3210527000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13795789000</v>
+        <v>4846252000</v>
       </c>
       <c r="AE2" t="n">
-        <v>6095746000</v>
+        <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5404281000</v>
+        <v>2248289000</v>
       </c>
       <c r="AG2" t="n">
-        <v>588703000</v>
+        <v>363524000</v>
       </c>
       <c r="AH2" t="n">
-        <v>894241000</v>
+        <v>389089000</v>
       </c>
       <c r="AI2" t="n">
-        <v>243681000</v>
+        <v>64937000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5234044000</v>
+        <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1894515000</v>
+        <v>553227000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19244893000</v>
+        <v>10019437000</v>
       </c>
       <c r="AM2" t="n">
-        <v>25241781000</v>
+        <v>15094277000</v>
       </c>
       <c r="AN2" t="n">
-        <v>2204024000</v>
+        <v>456666000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15540447000</v>
+        <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1454556000</v>
+        <v>365204000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>306550000</v>
+        <v>122369000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38374780000</v>
+        <v>515913000</v>
       </c>
       <c r="C2" s="42" t="n">
         <v>641841000</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32440" yWindow="6020" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,6 +377,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -406,18 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,174 +732,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD EMPN"/>
-      <sheetName val="Filtered OECD Data"/>
-      <sheetName val="U.S. Data for ISIC Splits"/>
-      <sheetName val="BEbIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="38">
-          <cell r="B38">
-            <v>2253</v>
-          </cell>
-          <cell r="C38">
-            <v>262.60000000000002</v>
-          </cell>
-          <cell r="D38">
-            <v>135.4</v>
-          </cell>
-          <cell r="E38">
-            <v>373</v>
-          </cell>
-          <cell r="F38">
-            <v>1783</v>
-          </cell>
-          <cell r="G38">
-            <v>442</v>
-          </cell>
-          <cell r="H38">
-            <v>399</v>
-          </cell>
-          <cell r="I38">
-            <v>842</v>
-          </cell>
-          <cell r="J38">
-            <v>111</v>
-          </cell>
-          <cell r="K38">
-            <v>820</v>
-          </cell>
-          <cell r="L38">
-            <v>690</v>
-          </cell>
-          <cell r="M38">
-            <v>412</v>
-          </cell>
-          <cell r="N38">
-            <v>395</v>
-          </cell>
-          <cell r="O38">
-            <v>1483</v>
-          </cell>
-          <cell r="P38">
-            <v>1058</v>
-          </cell>
-          <cell r="Q38">
-            <v>382</v>
-          </cell>
-          <cell r="R38">
-            <v>1126</v>
-          </cell>
-          <cell r="S38">
-            <v>922</v>
-          </cell>
-          <cell r="T38">
-            <v>695</v>
-          </cell>
-          <cell r="U38">
-            <v>1355.5</v>
-          </cell>
-          <cell r="V38">
-            <v>975</v>
-          </cell>
-          <cell r="W38">
-            <v>8240</v>
-          </cell>
-          <cell r="X38">
-            <v>23893.3</v>
-          </cell>
-          <cell r="Y38">
-            <v>5988</v>
-          </cell>
-          <cell r="Z38">
-            <v>13295</v>
-          </cell>
-          <cell r="AA38">
-            <v>1686.9</v>
-          </cell>
-          <cell r="AB38">
-            <v>823.1</v>
-          </cell>
-          <cell r="AC38">
-            <v>2455</v>
-          </cell>
-          <cell r="AD38">
-            <v>6300</v>
-          </cell>
-          <cell r="AE38">
-            <v>1958</v>
-          </cell>
-          <cell r="AF38">
-            <v>19863</v>
-          </cell>
-          <cell r="AG38">
-            <v>13365</v>
-          </cell>
-          <cell r="AH38">
-            <v>14114</v>
-          </cell>
-          <cell r="AI38">
-            <v>19522</v>
-          </cell>
-          <cell r="AJ38">
-            <v>8780.2000000000007</v>
-          </cell>
-          <cell r="AK38">
-            <v>329.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6">
-            <v>64800</v>
-          </cell>
-          <cell r="E6">
-            <v>185400</v>
-          </cell>
-          <cell r="G6">
-            <v>531100</v>
-          </cell>
-          <cell r="H6">
-            <v>284200</v>
-          </cell>
-          <cell r="J6">
-            <v>93600</v>
-          </cell>
-          <cell r="K6">
-            <v>310900</v>
-          </cell>
-          <cell r="M6">
-            <v>209500</v>
-          </cell>
-          <cell r="N6">
-            <v>182400</v>
-          </cell>
-          <cell r="P6">
-            <v>397500</v>
-          </cell>
-          <cell r="Q6">
-            <v>119700</v>
-          </cell>
-          <cell r="R6">
-            <v>50300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1187,6 +1017,9 @@
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="46" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1366,8 +1199,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="41"/>
-    <col width="9.1640625" customWidth="1" style="6" min="42" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1389,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="39" t="n"/>
+      <c r="O3" s="39" t="n"/>
+      <c r="P3" s="39" t="n"/>
+      <c r="Q3" s="39" t="n"/>
+      <c r="R3" s="39" t="n"/>
+      <c r="S3" s="39" t="n"/>
+      <c r="T3" s="39" t="n"/>
+      <c r="U3" s="39" t="n"/>
+      <c r="V3" s="39" t="n"/>
+      <c r="W3" s="39" t="n"/>
+      <c r="X3" s="39" t="n"/>
+      <c r="Y3" s="39" t="n"/>
+      <c r="Z3" s="39" t="n"/>
+      <c r="AA3" s="39" t="n"/>
+      <c r="AB3" s="39" t="n"/>
+      <c r="AC3" s="39" t="n"/>
+      <c r="AD3" s="39" t="n"/>
+      <c r="AE3" s="39" t="n"/>
+      <c r="AF3" s="39" t="n"/>
+      <c r="AG3" s="39" t="n"/>
+      <c r="AH3" s="39" t="n"/>
+      <c r="AI3" s="39" t="n"/>
+      <c r="AJ3" s="39" t="n"/>
+      <c r="AK3" s="39" t="n"/>
+      <c r="AL3" s="37" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="31" t="n"/>
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="39" t="n"/>
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="39" t="n"/>
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="39" t="n"/>
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="39" t="n"/>
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="39" t="n"/>
+      <c r="N4" s="39" t="n"/>
+      <c r="O4" s="39" t="n"/>
+      <c r="P4" s="39" t="n"/>
+      <c r="Q4" s="39" t="n"/>
+      <c r="R4" s="39" t="n"/>
+      <c r="S4" s="39" t="n"/>
+      <c r="T4" s="39" t="n"/>
+      <c r="U4" s="39" t="n"/>
+      <c r="V4" s="39" t="n"/>
+      <c r="W4" s="39" t="n"/>
+      <c r="X4" s="39" t="n"/>
+      <c r="Y4" s="39" t="n"/>
+      <c r="Z4" s="39" t="n"/>
+      <c r="AA4" s="39" t="n"/>
+      <c r="AB4" s="39" t="n"/>
+      <c r="AC4" s="39" t="n"/>
+      <c r="AD4" s="39" t="n"/>
+      <c r="AE4" s="39" t="n"/>
+      <c r="AF4" s="39" t="n"/>
+      <c r="AG4" s="39" t="n"/>
+      <c r="AH4" s="39" t="n"/>
+      <c r="AI4" s="39" t="n"/>
+      <c r="AJ4" s="39" t="n"/>
+      <c r="AK4" s="39" t="n"/>
+      <c r="AL4" s="37" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="31" t="n"/>
+      <c r="D5" s="39" t="n"/>
+      <c r="E5" s="39" t="n"/>
+      <c r="F5" s="39" t="n"/>
+      <c r="G5" s="39" t="n"/>
+      <c r="H5" s="39" t="n"/>
+      <c r="I5" s="39" t="n"/>
+      <c r="J5" s="39" t="n"/>
+      <c r="K5" s="39" t="n"/>
+      <c r="L5" s="39" t="n"/>
+      <c r="M5" s="39" t="n"/>
+      <c r="N5" s="39" t="n"/>
+      <c r="O5" s="39" t="n"/>
+      <c r="P5" s="39" t="n"/>
+      <c r="Q5" s="39" t="n"/>
+      <c r="R5" s="39" t="n"/>
+      <c r="S5" s="39" t="n"/>
+      <c r="T5" s="39" t="n"/>
+      <c r="U5" s="39" t="n"/>
+      <c r="V5" s="39" t="n"/>
+      <c r="W5" s="39" t="n"/>
+      <c r="X5" s="39" t="n"/>
+      <c r="Y5" s="39" t="n"/>
+      <c r="Z5" s="39" t="n"/>
+      <c r="AA5" s="39" t="n"/>
+      <c r="AB5" s="39" t="n"/>
+      <c r="AC5" s="39" t="n"/>
+      <c r="AD5" s="39" t="n"/>
+      <c r="AE5" s="39" t="n"/>
+      <c r="AF5" s="39" t="n"/>
+      <c r="AG5" s="39" t="n"/>
+      <c r="AH5" s="39" t="n"/>
+      <c r="AI5" s="39" t="n"/>
+      <c r="AJ5" s="39" t="n"/>
+      <c r="AK5" s="39" t="n"/>
+      <c r="AL5" s="37" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="38" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="31" t="n"/>
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="39" t="n"/>
+      <c r="F6" s="39" t="n"/>
+      <c r="G6" s="39" t="n"/>
+      <c r="H6" s="39" t="n"/>
+      <c r="I6" s="39" t="n"/>
+      <c r="J6" s="39" t="n"/>
+      <c r="K6" s="39" t="n"/>
+      <c r="L6" s="39" t="n"/>
+      <c r="M6" s="39" t="n"/>
+      <c r="N6" s="39" t="n"/>
+      <c r="O6" s="39" t="n"/>
+      <c r="P6" s="39" t="n"/>
+      <c r="Q6" s="39" t="n"/>
+      <c r="R6" s="39" t="n"/>
+      <c r="S6" s="39" t="n"/>
+      <c r="T6" s="39" t="n"/>
+      <c r="U6" s="39" t="n"/>
+      <c r="V6" s="39" t="n"/>
+      <c r="W6" s="39" t="n"/>
+      <c r="X6" s="39" t="n"/>
+      <c r="Y6" s="39" t="n"/>
+      <c r="Z6" s="39" t="n"/>
+      <c r="AA6" s="39" t="n"/>
+      <c r="AB6" s="39" t="n"/>
+      <c r="AC6" s="39" t="n"/>
+      <c r="AD6" s="39" t="n"/>
+      <c r="AE6" s="39" t="n"/>
+      <c r="AF6" s="39" t="n"/>
+      <c r="AG6" s="39" t="n"/>
+      <c r="AH6" s="39" t="n"/>
+      <c r="AI6" s="39" t="n"/>
+      <c r="AJ6" s="39" t="n"/>
+      <c r="AK6" s="39" t="n"/>
+      <c r="AL6" s="37" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="37" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2227,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="37" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="42" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="45" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="37" t="n"/>
+      <c r="E4" s="45" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="37" t="n"/>
+      <c r="G4" s="45" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="37" t="n"/>
+      <c r="I4" s="45" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="37" t="n"/>
+      <c r="K4" s="45" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="37" t="n"/>
+      <c r="M4" s="45" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="37" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="42" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="37" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3626,12 +3459,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -3671,12 +3504,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -3686,22 +3519,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -3741,17 +3574,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="44" t="inlineStr">
+      <c r="AA1" s="34" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -3841,10 +3674,10 @@
       <c r="B2" t="n">
         <v>515913000</v>
       </c>
-      <c r="C2" s="42" t="n">
+      <c r="C2" s="32" t="n">
         <v>641841000</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="33" t="n">
         <v>128024867.3571667</v>
       </c>
       <c r="E2" t="n">
@@ -3868,25 +3701,25 @@
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
-      <c r="L2" s="42" t="n">
+      <c r="L2" s="32" t="n">
         <v>74744555.23755008</v>
       </c>
-      <c r="M2" s="43" t="n">
+      <c r="M2" s="33" t="n">
         <v>54413444.76244991</v>
       </c>
       <c r="N2" t="n">
         <v>60792000</v>
       </c>
-      <c r="O2" s="42" t="n">
+      <c r="O2" s="32" t="n">
         <v>4910956.349206349</v>
       </c>
-      <c r="P2" s="43" t="n">
+      <c r="P2" s="33" t="n">
         <v>102703043.6507937</v>
       </c>
-      <c r="Q2" s="42" t="n">
+      <c r="Q2" s="32" t="n">
         <v>3132850.393700787</v>
       </c>
-      <c r="R2" s="43" t="n">
+      <c r="R2" s="33" t="n">
         <v>21734149.60629921</v>
       </c>
       <c r="S2" t="n">
@@ -3910,13 +3743,13 @@
       <c r="Y2" t="n">
         <v>96488000</v>
       </c>
-      <c r="Z2" s="42" t="n">
+      <c r="Z2" s="32" t="n">
         <v>370462875.699888</v>
       </c>
-      <c r="AA2" s="45" t="n">
+      <c r="AA2" s="35" t="n">
         <v>86483959.68645017</v>
       </c>
-      <c r="AB2" s="43" t="n">
+      <c r="AB2" s="33" t="n">
         <v>62073164.61366182</v>
       </c>
       <c r="AC2" t="n">

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>515913000</v>
+        <v>6503053.150036705</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>641841000</v>
+        <v>34085190.906089</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>128024867.3571667</v>
+        <v>151461121.9006621</v>
       </c>
       <c r="E2" t="n">
-        <v>274051132.6428333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1558804000</v>
+        <v>326877182.1105483</v>
       </c>
       <c r="G2" t="n">
-        <v>356212000</v>
+        <v>80454390.91375726</v>
       </c>
       <c r="H2" t="n">
-        <v>10254000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48966000</v>
+        <v>11515949.9036018</v>
       </c>
       <c r="J2" t="n">
-        <v>72686000</v>
+        <v>19079167.85163806</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>74744555.23755008</v>
+        <v>33901342.90815572</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>54413444.76244991</v>
+        <v>16041497.52214954</v>
       </c>
       <c r="N2" t="n">
-        <v>60792000</v>
+        <v>17364899.22628084</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>4910956.349206349</v>
+        <v>883533.9735388653</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>102703043.6507937</v>
+        <v>37686560.46891014</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>3132850.393700787</v>
+        <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>21734149.60629921</v>
+        <v>5556084.02018615</v>
       </c>
       <c r="S2" t="n">
-        <v>154880000</v>
+        <v>36891151.98198392</v>
       </c>
       <c r="T2" t="n">
-        <v>577653000</v>
+        <v>101804309.4506126</v>
       </c>
       <c r="U2" t="n">
-        <v>41865000</v>
+        <v>10032630.82936738</v>
       </c>
       <c r="V2" t="n">
-        <v>94408000</v>
+        <v>34861606.83124525</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3881319.923310459</v>
       </c>
       <c r="Y2" t="n">
-        <v>96488000</v>
+        <v>44302809.28709585</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>370462875.699888</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>86483959.68645017</v>
+        <v>15245418.14109742</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>62073164.61366182</v>
+        <v>315080809.8544233</v>
       </c>
       <c r="AC2" t="n">
-        <v>3210527000</v>
+        <v>763014773.5713627</v>
       </c>
       <c r="AD2" t="n">
-        <v>4846252000</v>
+        <v>413274725.4533636</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2248289000</v>
+        <v>663482734.210909</v>
       </c>
       <c r="AG2" t="n">
-        <v>363524000</v>
+        <v>199456465.047075</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3777,25 +3777,25 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>553227000</v>
+        <v>158754265.6203295</v>
       </c>
       <c r="AL2" t="n">
-        <v>10019437000</v>
+        <v>1781643598.682474</v>
       </c>
       <c r="AM2" t="n">
-        <v>15094277000</v>
+        <v>40525640000</v>
       </c>
       <c r="AN2" t="n">
-        <v>456666000</v>
+        <v>109051491.1707966</v>
       </c>
       <c r="AO2" t="n">
-        <v>6524634000</v>
+        <v>2111035016.120131</v>
       </c>
       <c r="AP2" t="n">
-        <v>365204000</v>
+        <v>108426256.0373293</v>
       </c>
       <c r="AQ2" t="n">
-        <v>122369000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6503053.150036705</v>
+        <v>673738.1567414502</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>34085190.906089</v>
+        <v>3531340.304841154</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>151461121.9006621</v>
+        <v>15691881.14151708</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>326877182.1105483</v>
+        <v>33865574.38097474</v>
       </c>
       <c r="G2" t="n">
-        <v>80454390.91375726</v>
+        <v>8335345.227139185</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11515949.9036018</v>
+        <v>1193091.103851083</v>
       </c>
       <c r="J2" t="n">
-        <v>19079167.85163806</v>
+        <v>1976665.89584168</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>33901342.90815572</v>
+        <v>3512293.034522061</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>16041497.52214954</v>
+        <v>1661953.043069403</v>
       </c>
       <c r="N2" t="n">
-        <v>17364899.22628084</v>
+        <v>1799061.906275432</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>883533.9735388653</v>
+        <v>91537.08835167132</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>37686560.46891014</v>
+        <v>3904454.292228168</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>5556084.02018615</v>
+        <v>575628.9730524061</v>
       </c>
       <c r="S2" t="n">
-        <v>36891151.98198392</v>
+        <v>3822047.300393086</v>
       </c>
       <c r="T2" t="n">
-        <v>101804309.4506126</v>
+        <v>10547268.52374023</v>
       </c>
       <c r="U2" t="n">
-        <v>10032630.82936738</v>
+        <v>1039414.263776588</v>
       </c>
       <c r="V2" t="n">
-        <v>34861606.83124525</v>
+        <v>3611779.603461453</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3881319.923310459</v>
+        <v>402117.7853729053</v>
       </c>
       <c r="Y2" t="n">
-        <v>44302809.28709585</v>
+        <v>4589919.900529721</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>370462875.699888</v>
+        <v>331021961.1767061</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>15245418.14109742</v>
+        <v>155896455.473284</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>315080809.8544233</v>
+        <v>281536084.8509105</v>
       </c>
       <c r="AC2" t="n">
-        <v>763014773.5713627</v>
+        <v>79050894.28794894</v>
       </c>
       <c r="AD2" t="n">
-        <v>413274725.4533636</v>
+        <v>42816650.16888359</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>663482734.210909</v>
+        <v>68739040.58042526</v>
       </c>
       <c r="AG2" t="n">
-        <v>199456465.047075</v>
+        <v>20664359.95686477</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3777,22 +3777,22 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>158754265.6203295</v>
+        <v>16447475.33599347</v>
       </c>
       <c r="AL2" t="n">
-        <v>1781643598.682474</v>
+        <v>184584263.1840952</v>
       </c>
       <c r="AM2" t="n">
         <v>40525640000</v>
       </c>
       <c r="AN2" t="n">
-        <v>109051491.1707966</v>
+        <v>456666000</v>
       </c>
       <c r="AO2" t="n">
-        <v>2111035016.120131</v>
+        <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>108426256.0373293</v>
+        <v>11233324.44000622</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,76 +3677,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>673738.1567414502</v>
+        <v>22035303.67906108</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>3531340.304841154</v>
+        <v>115496139.3126862</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>15691881.14151708</v>
+        <v>513219212.5222815</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33865574.38097474</v>
+        <v>1107608658.176357</v>
       </c>
       <c r="G2" t="n">
-        <v>8335345.227139185</v>
+        <v>272616092.0410942</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1193091.103851083</v>
+        <v>39021279.30129059</v>
       </c>
       <c r="J2" t="n">
-        <v>1976665.89584168</v>
+        <v>64648903.80793693</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>3512293.034522061</v>
+        <v>114873178.6245632</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>1661953.043069403</v>
+        <v>54355894.25645027</v>
       </c>
       <c r="N2" t="n">
-        <v>1799061.906275432</v>
+        <v>58840181.52384798</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>91537.08835167132</v>
+        <v>2993815.207797668</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>3904454.292228168</v>
+        <v>127699218.4120541</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>575628.9730524061</v>
+        <v>18826541.29168379</v>
       </c>
       <c r="S2" t="n">
-        <v>3822047.300393086</v>
+        <v>125004012.4597204</v>
       </c>
       <c r="T2" t="n">
-        <v>10547268.52374023</v>
+        <v>344959332.6126659</v>
       </c>
       <c r="U2" t="n">
-        <v>1039414.263776588</v>
+        <v>33995119.20393466</v>
       </c>
       <c r="V2" t="n">
-        <v>3611779.603461453</v>
+        <v>118126989.8220321</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>402117.7853729053</v>
+        <v>13151678.32900971</v>
       </c>
       <c r="Y2" t="n">
-        <v>4589919.900529721</v>
+        <v>150118080.5313232</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>331021961.1767061</v>
@@ -3753,19 +3758,19 @@
         <v>281536084.8509105</v>
       </c>
       <c r="AC2" t="n">
-        <v>79050894.28794894</v>
+        <v>2585441308.773574</v>
       </c>
       <c r="AD2" t="n">
-        <v>42816650.16888359</v>
+        <v>1400362855.437228</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>68739040.58042526</v>
+        <v>2248181461.359982</v>
       </c>
       <c r="AG2" t="n">
-        <v>20664359.95686477</v>
+        <v>675849278.2793145</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3777,13 +3782,13 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16447475.33599347</v>
+        <v>537931702.6296397</v>
       </c>
       <c r="AL2" t="n">
-        <v>184584263.1840952</v>
+        <v>6037019356.76198</v>
       </c>
       <c r="AM2" t="n">
-        <v>40525640000</v>
+        <v>15094277000</v>
       </c>
       <c r="AN2" t="n">
         <v>456666000</v>
@@ -3792,7 +3797,7 @@
         <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>11233324.44000622</v>
+        <v>367397501.3648313</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,11 +1016,6 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1193,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2039,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3447,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3677,76 +3672,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22035303.67906108</v>
+        <v>673738.1567414502</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>115496139.3126862</v>
+        <v>3531340.304841154</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>513219212.5222815</v>
+        <v>15691881.14151708</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1107608658.176357</v>
+        <v>33865574.38097474</v>
       </c>
       <c r="G2" t="n">
-        <v>272616092.0410942</v>
+        <v>8335345.227139185</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39021279.30129059</v>
+        <v>1193091.103851083</v>
       </c>
       <c r="J2" t="n">
-        <v>64648903.80793693</v>
+        <v>1976665.89584168</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>114873178.6245632</v>
+        <v>3512293.034522061</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>54355894.25645027</v>
+        <v>1661953.043069403</v>
       </c>
       <c r="N2" t="n">
-        <v>58840181.52384798</v>
+        <v>1799061.906275432</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>2993815.207797668</v>
+        <v>91537.08835167132</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>127699218.4120541</v>
+        <v>3904454.292228168</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>18826541.29168379</v>
+        <v>575628.9730524061</v>
       </c>
       <c r="S2" t="n">
-        <v>125004012.4597204</v>
+        <v>3822047.300393086</v>
       </c>
       <c r="T2" t="n">
-        <v>344959332.6126659</v>
+        <v>10547268.52374023</v>
       </c>
       <c r="U2" t="n">
-        <v>33995119.20393466</v>
+        <v>1039414.263776588</v>
       </c>
       <c r="V2" t="n">
-        <v>118126989.8220321</v>
+        <v>3611779.603461453</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13151678.32900971</v>
+        <v>402117.7853729053</v>
       </c>
       <c r="Y2" t="n">
-        <v>150118080.5313232</v>
+        <v>4589919.900529721</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>331021961.1767061</v>
@@ -3758,19 +3753,19 @@
         <v>281536084.8509105</v>
       </c>
       <c r="AC2" t="n">
-        <v>2585441308.773574</v>
+        <v>79050894.28794894</v>
       </c>
       <c r="AD2" t="n">
-        <v>1400362855.437228</v>
+        <v>42816650.16888359</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2248181461.359982</v>
+        <v>68739040.58042526</v>
       </c>
       <c r="AG2" t="n">
-        <v>675849278.2793145</v>
+        <v>20664359.95686477</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3782,13 +3777,13 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>537931702.6296397</v>
+        <v>16447475.33599347</v>
       </c>
       <c r="AL2" t="n">
-        <v>6037019356.76198</v>
+        <v>184584263.1840952</v>
       </c>
       <c r="AM2" t="n">
-        <v>15094277000</v>
+        <v>40525640000</v>
       </c>
       <c r="AN2" t="n">
         <v>456666000</v>
@@ -3797,7 +3792,7 @@
         <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>367397501.3648313</v>
+        <v>11233324.44000622</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,76 +3677,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>673738.1567414502</v>
+        <v>22035303.67906108</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>3531340.304841154</v>
+        <v>115496139.3126862</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>15691881.14151708</v>
+        <v>513219212.5222815</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33865574.38097474</v>
+        <v>1107608658.176357</v>
       </c>
       <c r="G2" t="n">
-        <v>8335345.227139185</v>
+        <v>272616092.0410942</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1193091.103851083</v>
+        <v>39021279.30129059</v>
       </c>
       <c r="J2" t="n">
-        <v>1976665.89584168</v>
+        <v>64648903.80793693</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>3512293.034522061</v>
+        <v>114873178.6245632</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>1661953.043069403</v>
+        <v>54355894.25645027</v>
       </c>
       <c r="N2" t="n">
-        <v>1799061.906275432</v>
+        <v>58840181.52384798</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>91537.08835167132</v>
+        <v>2993815.207797668</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>3904454.292228168</v>
+        <v>127699218.4120541</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>575628.9730524061</v>
+        <v>18826541.29168379</v>
       </c>
       <c r="S2" t="n">
-        <v>3822047.300393086</v>
+        <v>125004012.4597204</v>
       </c>
       <c r="T2" t="n">
-        <v>10547268.52374023</v>
+        <v>344959332.6126659</v>
       </c>
       <c r="U2" t="n">
-        <v>1039414.263776588</v>
+        <v>33995119.20393466</v>
       </c>
       <c r="V2" t="n">
-        <v>3611779.603461453</v>
+        <v>118126989.8220321</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>402117.7853729053</v>
+        <v>13151678.32900971</v>
       </c>
       <c r="Y2" t="n">
-        <v>4589919.900529721</v>
+        <v>150118080.5313232</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>331021961.1767061</v>
@@ -3753,19 +3758,19 @@
         <v>281536084.8509105</v>
       </c>
       <c r="AC2" t="n">
-        <v>79050894.28794894</v>
+        <v>2585441308.773574</v>
       </c>
       <c r="AD2" t="n">
-        <v>42816650.16888359</v>
+        <v>1400362855.437228</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>68739040.58042526</v>
+        <v>2248181461.359982</v>
       </c>
       <c r="AG2" t="n">
-        <v>20664359.95686477</v>
+        <v>675849278.2793145</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3777,13 +3782,13 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16447475.33599347</v>
+        <v>537931702.6296397</v>
       </c>
       <c r="AL2" t="n">
-        <v>184584263.1840952</v>
+        <v>6037019356.76198</v>
       </c>
       <c r="AM2" t="n">
-        <v>40525640000</v>
+        <v>15094277000</v>
       </c>
       <c r="AN2" t="n">
         <v>456666000</v>
@@ -3792,7 +3797,7 @@
         <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>11233324.44000622</v>
+        <v>367397501.3648313</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,11 +1016,6 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1193,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2039,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3447,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3677,76 +3672,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22035303.67906108</v>
+        <v>673738.1567414502</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>115496139.3126862</v>
+        <v>3531340.304841154</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>513219212.5222815</v>
+        <v>15691881.14151708</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1107608658.176357</v>
+        <v>33865574.38097474</v>
       </c>
       <c r="G2" t="n">
-        <v>272616092.0410942</v>
+        <v>8335345.227139185</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39021279.30129059</v>
+        <v>1193091.103851083</v>
       </c>
       <c r="J2" t="n">
-        <v>64648903.80793693</v>
+        <v>1976665.89584168</v>
       </c>
       <c r="K2" t="n">
         <v>166678000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>114873178.6245632</v>
+        <v>3512293.034522061</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>54355894.25645027</v>
+        <v>1661953.043069403</v>
       </c>
       <c r="N2" t="n">
-        <v>58840181.52384798</v>
+        <v>1799061.906275432</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>2993815.207797668</v>
+        <v>91537.08835167132</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>127699218.4120541</v>
+        <v>3904454.292228168</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>18826541.29168379</v>
+        <v>575628.9730524061</v>
       </c>
       <c r="S2" t="n">
-        <v>125004012.4597204</v>
+        <v>3822047.300393086</v>
       </c>
       <c r="T2" t="n">
-        <v>344959332.6126659</v>
+        <v>10547268.52374023</v>
       </c>
       <c r="U2" t="n">
-        <v>33995119.20393466</v>
+        <v>1039414.263776588</v>
       </c>
       <c r="V2" t="n">
-        <v>118126989.8220321</v>
+        <v>3611779.603461453</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13151678.32900971</v>
+        <v>402117.7853729053</v>
       </c>
       <c r="Y2" t="n">
-        <v>150118080.5313232</v>
+        <v>4589919.900529721</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>331021961.1767061</v>
@@ -3758,19 +3753,19 @@
         <v>281536084.8509105</v>
       </c>
       <c r="AC2" t="n">
-        <v>2585441308.773574</v>
+        <v>79050894.28794894</v>
       </c>
       <c r="AD2" t="n">
-        <v>1400362855.437228</v>
+        <v>42816650.16888359</v>
       </c>
       <c r="AE2" t="n">
         <v>1530011000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2248181461.359982</v>
+        <v>68739040.58042526</v>
       </c>
       <c r="AG2" t="n">
-        <v>675849278.2793145</v>
+        <v>20664359.95686477</v>
       </c>
       <c r="AH2" t="n">
         <v>389089000</v>
@@ -3782,13 +3777,13 @@
         <v>1964965000</v>
       </c>
       <c r="AK2" t="n">
-        <v>537931702.6296397</v>
+        <v>16447475.33599347</v>
       </c>
       <c r="AL2" t="n">
-        <v>6037019356.76198</v>
+        <v>184584263.1840952</v>
       </c>
       <c r="AM2" t="n">
-        <v>15094277000</v>
+        <v>40525640000</v>
       </c>
       <c r="AN2" t="n">
         <v>456666000</v>
@@ -3797,7 +3792,7 @@
         <v>6524634000</v>
       </c>
       <c r="AP2" t="n">
-        <v>367397501.3648313</v>
+        <v>11233324.44000622</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
